--- a/poisson calc.xlsx
+++ b/poisson calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="away" sheetId="2" r:id="rId2"/>
     <sheet name="fixture" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -1519,8 +1519,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -2002,9 +2002,9 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2344,7 +2344,7 @@
   <dimension ref="A1:E405"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="A2" sqref="A2:E405"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2410,6 +2410,12 @@
       <c r="C4">
         <v>1.5777777777777799</v>
       </c>
+      <c r="D4">
+        <v>1.58</v>
+      </c>
+      <c r="E4">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -2540,6 +2546,12 @@
       <c r="C12">
         <v>1.5777777777777799</v>
       </c>
+      <c r="D12">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="E12">
+        <v>1.36</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -2585,6 +2597,12 @@
       <c r="C15">
         <v>1.5777777777777799</v>
       </c>
+      <c r="D15">
+        <v>0.92</v>
+      </c>
+      <c r="E15">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -2987,6 +3005,12 @@
       <c r="C39">
         <v>1.61481481481482</v>
       </c>
+      <c r="D39">
+        <v>0.62</v>
+      </c>
+      <c r="E39">
+        <v>1.1399999999999999</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -3134,6 +3158,12 @@
       <c r="C48">
         <v>1.61481481481482</v>
       </c>
+      <c r="D48">
+        <v>1.06</v>
+      </c>
+      <c r="E48">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -3162,6 +3192,12 @@
       <c r="C50">
         <v>1.61481481481482</v>
       </c>
+      <c r="D50">
+        <v>0.8</v>
+      </c>
+      <c r="E50">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -3241,6 +3277,12 @@
       <c r="C55">
         <v>1.61481481481482</v>
       </c>
+      <c r="D55">
+        <v>0.85</v>
+      </c>
+      <c r="E55">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -4833,6 +4875,12 @@
       <c r="C149">
         <v>1.47058823529412</v>
       </c>
+      <c r="D149">
+        <v>0.68</v>
+      </c>
+      <c r="E149">
+        <v>0.88</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -4997,6 +5045,12 @@
       <c r="C159">
         <v>1.47058823529412</v>
       </c>
+      <c r="D159">
+        <v>0.93</v>
+      </c>
+      <c r="E159">
+        <v>1.45</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
@@ -5059,6 +5113,12 @@
       <c r="C163">
         <v>1.47058823529412</v>
       </c>
+      <c r="D163">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E163">
+        <v>0.64</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -5087,6 +5147,12 @@
       <c r="C165">
         <v>1.47058823529412</v>
       </c>
+      <c r="D165">
+        <v>1.44</v>
+      </c>
+      <c r="E165">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
@@ -5098,6 +5164,12 @@
       <c r="C166">
         <v>1.47058823529412</v>
       </c>
+      <c r="D166">
+        <v>1.55</v>
+      </c>
+      <c r="E166">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
@@ -5109,6 +5181,12 @@
       <c r="C167">
         <v>1.47058823529412</v>
       </c>
+      <c r="D167">
+        <v>0.82</v>
+      </c>
+      <c r="E167">
+        <v>1.85</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
@@ -5120,6 +5198,12 @@
       <c r="C168">
         <v>1.47058823529412</v>
       </c>
+      <c r="D168">
+        <v>0.91</v>
+      </c>
+      <c r="E168">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
@@ -5573,6 +5657,12 @@
       <c r="C195">
         <v>1.28042328042328</v>
       </c>
+      <c r="D195">
+        <v>0.7</v>
+      </c>
+      <c r="E195">
+        <v>1.31</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
@@ -5618,6 +5708,12 @@
       <c r="C198">
         <v>1.28042328042328</v>
       </c>
+      <c r="D198">
+        <v>0.7</v>
+      </c>
+      <c r="E198">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
@@ -5731,6 +5827,12 @@
       <c r="C205">
         <v>1.28042328042328</v>
       </c>
+      <c r="D205">
+        <v>0.69</v>
+      </c>
+      <c r="E205">
+        <v>1.25</v>
+      </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
@@ -5742,6 +5844,12 @@
       <c r="C206">
         <v>1.28042328042328</v>
       </c>
+      <c r="D206">
+        <v>0.7</v>
+      </c>
+      <c r="E206">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -6042,6 +6150,12 @@
       <c r="C224">
         <v>1.24545454545455</v>
       </c>
+      <c r="D224">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E224">
+        <v>0.89</v>
+      </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
@@ -6546,6 +6660,12 @@
       <c r="C254">
         <v>1.31736526946108</v>
       </c>
+      <c r="D254">
+        <v>1.42</v>
+      </c>
+      <c r="E254">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
@@ -6574,6 +6694,12 @@
       <c r="C256">
         <v>1.31736526946108</v>
       </c>
+      <c r="D256">
+        <v>0.87</v>
+      </c>
+      <c r="E256">
+        <v>1.1299999999999999</v>
+      </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
@@ -6585,6 +6711,12 @@
       <c r="C257">
         <v>1.31736526946108</v>
       </c>
+      <c r="D257">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="E257">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
@@ -6596,6 +6728,12 @@
       <c r="C258">
         <v>1.31736526946108</v>
       </c>
+      <c r="D258">
+        <v>0.76</v>
+      </c>
+      <c r="E258">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
@@ -6607,6 +6745,12 @@
       <c r="C259">
         <v>1.31736526946108</v>
       </c>
+      <c r="D259">
+        <v>0.85</v>
+      </c>
+      <c r="E259">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
@@ -6669,6 +6813,12 @@
       <c r="C263">
         <v>1.31736526946108</v>
       </c>
+      <c r="D263">
+        <v>1.08</v>
+      </c>
+      <c r="E263">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
@@ -6680,6 +6830,12 @@
       <c r="C264">
         <v>1.31736526946108</v>
       </c>
+      <c r="D264">
+        <v>0.67</v>
+      </c>
+      <c r="E264">
+        <v>1.66</v>
+      </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
@@ -6861,6 +7017,12 @@
       <c r="C275">
         <v>1.6388888888888899</v>
       </c>
+      <c r="D275">
+        <v>1.22</v>
+      </c>
+      <c r="E275">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
@@ -6872,6 +7034,12 @@
       <c r="C276">
         <v>1.6388888888888899</v>
       </c>
+      <c r="D276">
+        <v>0.95</v>
+      </c>
+      <c r="E276">
+        <v>0.99</v>
+      </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
@@ -6934,6 +7102,12 @@
       <c r="C280">
         <v>1.6388888888888899</v>
       </c>
+      <c r="D280">
+        <v>0.61</v>
+      </c>
+      <c r="E280">
+        <v>1.1100000000000001</v>
+      </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
@@ -7030,6 +7204,12 @@
       <c r="C286">
         <v>1.2844827586206899</v>
       </c>
+      <c r="D286">
+        <v>1</v>
+      </c>
+      <c r="E286">
+        <v>1.99</v>
+      </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
@@ -7041,6 +7221,12 @@
       <c r="C287">
         <v>1.2844827586206899</v>
       </c>
+      <c r="D287">
+        <v>1.33</v>
+      </c>
+      <c r="E287">
+        <v>1.1200000000000001</v>
+      </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
@@ -7052,6 +7238,12 @@
       <c r="C288">
         <v>1.2844827586206899</v>
       </c>
+      <c r="D288">
+        <v>0.65</v>
+      </c>
+      <c r="E288">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
@@ -7131,6 +7323,12 @@
       <c r="C293">
         <v>1.2844827586206899</v>
       </c>
+      <c r="D293">
+        <v>1.3</v>
+      </c>
+      <c r="E293">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -7669,6 +7867,12 @@
       <c r="C325">
         <v>1.28</v>
       </c>
+      <c r="D325">
+        <v>1.43</v>
+      </c>
+      <c r="E325">
+        <v>0.91</v>
+      </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
@@ -8360,6 +8564,12 @@
       <c r="C366">
         <v>1.1491228070175401</v>
       </c>
+      <c r="D366">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E366">
+        <v>1.59</v>
+      </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
@@ -8371,6 +8581,12 @@
       <c r="C367">
         <v>1.1491228070175401</v>
       </c>
+      <c r="D367">
+        <v>0.78</v>
+      </c>
+      <c r="E367">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
@@ -8399,6 +8615,12 @@
       <c r="C369">
         <v>1.1491228070175401</v>
       </c>
+      <c r="D369">
+        <v>0.61</v>
+      </c>
+      <c r="E369">
+        <v>0.85</v>
+      </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
@@ -8461,6 +8683,12 @@
       <c r="C373">
         <v>1.1491228070175401</v>
       </c>
+      <c r="D373">
+        <v>0.96</v>
+      </c>
+      <c r="E373">
+        <v>1.34</v>
+      </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
@@ -8523,6 +8751,12 @@
       <c r="C377">
         <v>1.1491228070175401</v>
       </c>
+      <c r="D377">
+        <v>0.7</v>
+      </c>
+      <c r="E377">
+        <v>0.73</v>
+      </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
@@ -8551,6 +8785,12 @@
       <c r="C379">
         <v>1.1491228070175401</v>
       </c>
+      <c r="D379">
+        <v>1.03</v>
+      </c>
+      <c r="E379">
+        <v>1.33</v>
+      </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
@@ -8562,6 +8802,12 @@
       <c r="C380">
         <v>1.1491228070175401</v>
       </c>
+      <c r="D380">
+        <v>0.79</v>
+      </c>
+      <c r="E380">
+        <v>1.55</v>
+      </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
@@ -8726,6 +8972,12 @@
       <c r="C390">
         <v>1.5388888888888901</v>
       </c>
+      <c r="D390">
+        <v>0.32</v>
+      </c>
+      <c r="E390">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
@@ -8788,6 +9040,12 @@
       <c r="C394">
         <v>1.5388888888888901</v>
       </c>
+      <c r="D394">
+        <v>1.38</v>
+      </c>
+      <c r="E394">
+        <v>0.84</v>
+      </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
@@ -8799,6 +9057,12 @@
       <c r="C395">
         <v>1.5388888888888901</v>
       </c>
+      <c r="D395">
+        <v>0.97</v>
+      </c>
+      <c r="E395">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
@@ -8827,6 +9091,12 @@
       <c r="C397">
         <v>1.5388888888888901</v>
       </c>
+      <c r="D397">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E397">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
@@ -8837,6 +9107,12 @@
       </c>
       <c r="C398">
         <v>1.5388888888888901</v>
+      </c>
+      <c r="D398">
+        <v>1.37</v>
+      </c>
+      <c r="E398">
+        <v>0.75</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -8971,7 +9247,7 @@
   <dimension ref="A1:E405"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9037,6 +9313,12 @@
       <c r="C4">
         <v>1.4055555555555601</v>
       </c>
+      <c r="D4">
+        <v>1.01</v>
+      </c>
+      <c r="E4">
+        <v>1.58</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -9167,6 +9449,12 @@
       <c r="C12">
         <v>1.4055555555555601</v>
       </c>
+      <c r="D12">
+        <v>0.85</v>
+      </c>
+      <c r="E12">
+        <v>1.06</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -9212,6 +9500,12 @@
       <c r="C15">
         <v>1.4055555555555601</v>
       </c>
+      <c r="D15">
+        <v>1.34</v>
+      </c>
+      <c r="E15">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -9614,6 +9908,12 @@
       <c r="C39">
         <v>1.31851851851852</v>
       </c>
+      <c r="D39">
+        <v>0.53</v>
+      </c>
+      <c r="E39">
+        <v>1.77</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
@@ -9761,6 +10061,12 @@
       <c r="C48">
         <v>1.31851851851852</v>
       </c>
+      <c r="D48">
+        <v>1.08</v>
+      </c>
+      <c r="E48">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
@@ -9789,6 +10095,12 @@
       <c r="C50">
         <v>1.31851851851852</v>
       </c>
+      <c r="D50">
+        <v>0.85</v>
+      </c>
+      <c r="E50">
+        <v>0.62</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
@@ -9868,6 +10180,12 @@
       <c r="C55">
         <v>1.31851851851852</v>
       </c>
+      <c r="D55">
+        <v>0.62</v>
+      </c>
+      <c r="E55">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
@@ -11460,6 +11778,12 @@
       <c r="C149">
         <v>1.29411764705882</v>
       </c>
+      <c r="D149">
+        <v>0.8</v>
+      </c>
+      <c r="E149">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
@@ -11624,6 +11948,12 @@
       <c r="C159">
         <v>1.29411764705882</v>
       </c>
+      <c r="D159">
+        <v>0.79</v>
+      </c>
+      <c r="E159">
+        <v>1.81</v>
+      </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
@@ -11686,6 +12016,12 @@
       <c r="C163">
         <v>1.29411764705882</v>
       </c>
+      <c r="D163">
+        <v>1.02</v>
+      </c>
+      <c r="E163">
+        <v>0.93</v>
+      </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
@@ -11714,6 +12050,12 @@
       <c r="C165">
         <v>1.29411764705882</v>
       </c>
+      <c r="D165">
+        <v>1.59</v>
+      </c>
+      <c r="E165">
+        <v>0.83</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
@@ -11725,6 +12067,12 @@
       <c r="C166">
         <v>1.29411764705882</v>
       </c>
+      <c r="D166">
+        <v>0.53</v>
+      </c>
+      <c r="E166">
+        <v>1.28</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
@@ -11736,6 +12084,12 @@
       <c r="C167">
         <v>1.29411764705882</v>
       </c>
+      <c r="D167">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E167">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
@@ -11747,6 +12101,12 @@
       <c r="C168">
         <v>1.29411764705882</v>
       </c>
+      <c r="D168">
+        <v>0.78</v>
+      </c>
+      <c r="E168">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
@@ -12200,6 +12560,12 @@
       <c r="C195">
         <v>1.0687830687830699</v>
       </c>
+      <c r="D195">
+        <v>1.04</v>
+      </c>
+      <c r="E195">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
@@ -12245,6 +12611,12 @@
       <c r="C198">
         <v>1.0687830687830699</v>
       </c>
+      <c r="D198">
+        <v>0.52</v>
+      </c>
+      <c r="E198">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
@@ -12358,6 +12730,12 @@
       <c r="C205">
         <v>1.0687830687830699</v>
       </c>
+      <c r="D205">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E205">
+        <v>1.41</v>
+      </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
@@ -12369,6 +12747,12 @@
       <c r="C206">
         <v>1.0687830687830699</v>
       </c>
+      <c r="D206">
+        <v>0.69</v>
+      </c>
+      <c r="E206">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
@@ -12669,6 +13053,12 @@
       <c r="C224">
         <v>1.1272727272727301</v>
       </c>
+      <c r="D224">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="E224">
+        <v>1.52</v>
+      </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
@@ -13173,6 +13563,12 @@
       <c r="C254">
         <v>1.1377245508981999</v>
       </c>
+      <c r="D254">
+        <v>0.84</v>
+      </c>
+      <c r="E254">
+        <v>0.76</v>
+      </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
@@ -13201,6 +13597,12 @@
       <c r="C256">
         <v>1.1377245508981999</v>
       </c>
+      <c r="D256">
+        <v>1.27</v>
+      </c>
+      <c r="E256">
+        <v>1.69</v>
+      </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
@@ -13212,6 +13614,12 @@
       <c r="C257">
         <v>1.1377245508981999</v>
       </c>
+      <c r="D257">
+        <v>0.67</v>
+      </c>
+      <c r="E257">
+        <v>0.42</v>
+      </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
@@ -13223,6 +13631,12 @@
       <c r="C258">
         <v>1.1377245508981999</v>
       </c>
+      <c r="D258">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E258">
+        <v>1.71</v>
+      </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
@@ -13234,6 +13648,12 @@
       <c r="C259">
         <v>1.1377245508981999</v>
       </c>
+      <c r="D259">
+        <v>0.59</v>
+      </c>
+      <c r="E259">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
@@ -13296,6 +13716,12 @@
       <c r="C263">
         <v>1.1377245508981999</v>
       </c>
+      <c r="D263">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E263">
+        <v>1.18</v>
+      </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
@@ -13307,6 +13733,12 @@
       <c r="C264">
         <v>1.1377245508981999</v>
       </c>
+      <c r="D264">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="E264">
+        <v>1.1399999999999999</v>
+      </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
@@ -13488,6 +13920,12 @@
       <c r="C275">
         <v>1.5763888888888899</v>
       </c>
+      <c r="D275">
+        <v>0.69</v>
+      </c>
+      <c r="E275">
+        <v>0.69</v>
+      </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
@@ -13499,6 +13937,12 @@
       <c r="C276">
         <v>1.5763888888888899</v>
       </c>
+      <c r="D276">
+        <v>1.48</v>
+      </c>
+      <c r="E276">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
@@ -13561,6 +14005,12 @@
       <c r="C280">
         <v>1.5763888888888899</v>
       </c>
+      <c r="D280">
+        <v>0.46</v>
+      </c>
+      <c r="E280">
+        <v>1.07</v>
+      </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
@@ -13657,6 +14107,12 @@
       <c r="C286">
         <v>1.1465517241379299</v>
       </c>
+      <c r="D286">
+        <v>0.65</v>
+      </c>
+      <c r="E286">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
@@ -13668,6 +14124,12 @@
       <c r="C287">
         <v>1.1465517241379299</v>
       </c>
+      <c r="D287">
+        <v>0.39</v>
+      </c>
+      <c r="E287">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
@@ -13679,6 +14141,12 @@
       <c r="C288">
         <v>1.1465517241379299</v>
       </c>
+      <c r="D288">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E288">
+        <v>1.1100000000000001</v>
+      </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
@@ -13758,6 +14226,12 @@
       <c r="C293">
         <v>1.1465517241379299</v>
       </c>
+      <c r="D293">
+        <v>0.78</v>
+      </c>
+      <c r="E293">
+        <v>0.67</v>
+      </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
@@ -14296,6 +14770,12 @@
       <c r="C325">
         <v>1.1000000000000001</v>
       </c>
+      <c r="D325">
+        <v>0.62</v>
+      </c>
+      <c r="E325">
+        <v>0.47</v>
+      </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
@@ -14987,6 +15467,12 @@
       <c r="C366">
         <v>0.820175438596491</v>
       </c>
+      <c r="D366">
+        <v>0.79</v>
+      </c>
+      <c r="E366">
+        <v>1.42</v>
+      </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
@@ -14998,6 +15484,12 @@
       <c r="C367">
         <v>0.820175438596491</v>
       </c>
+      <c r="D367">
+        <v>0.71</v>
+      </c>
+      <c r="E367">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
@@ -15026,6 +15518,12 @@
       <c r="C369">
         <v>0.820175438596491</v>
       </c>
+      <c r="D369">
+        <v>1.19</v>
+      </c>
+      <c r="E369">
+        <v>1.27</v>
+      </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
@@ -15088,6 +15586,12 @@
       <c r="C373">
         <v>0.820175438596491</v>
       </c>
+      <c r="D373">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E373">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
@@ -15150,6 +15654,12 @@
       <c r="C377">
         <v>0.820175438596491</v>
       </c>
+      <c r="D377">
+        <v>0.87</v>
+      </c>
+      <c r="E377">
+        <v>0.87</v>
+      </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
@@ -15178,6 +15688,12 @@
       <c r="C379">
         <v>0.820175438596491</v>
       </c>
+      <c r="D379">
+        <v>0.78</v>
+      </c>
+      <c r="E379">
+        <v>1.1299999999999999</v>
+      </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
@@ -15189,6 +15705,12 @@
       <c r="C380">
         <v>0.820175438596491</v>
       </c>
+      <c r="D380">
+        <v>0.78</v>
+      </c>
+      <c r="E380">
+        <v>1.04</v>
+      </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
@@ -15353,6 +15875,12 @@
       <c r="C390">
         <v>1.18888888888889</v>
       </c>
+      <c r="D390">
+        <v>0.94</v>
+      </c>
+      <c r="E390">
+        <v>1.37</v>
+      </c>
     </row>
     <row r="391" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
@@ -15415,6 +15943,12 @@
       <c r="C394">
         <v>1.18888888888889</v>
       </c>
+      <c r="D394">
+        <v>1.01</v>
+      </c>
+      <c r="E394">
+        <v>0.79</v>
+      </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
@@ -15426,6 +15960,12 @@
       <c r="C395">
         <v>1.18888888888889</v>
       </c>
+      <c r="D395">
+        <v>0.43</v>
+      </c>
+      <c r="E395">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
@@ -15454,6 +15994,12 @@
       <c r="C397">
         <v>1.18888888888889</v>
       </c>
+      <c r="D397">
+        <v>0.73</v>
+      </c>
+      <c r="E397">
+        <v>1.1399999999999999</v>
+      </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
@@ -15464,6 +16010,12 @@
       </c>
       <c r="C398">
         <v>1.18888888888889</v>
+      </c>
+      <c r="D398">
+        <v>0.65</v>
+      </c>
+      <c r="E398">
+        <v>1.22</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.25">
@@ -15598,10 +16150,10 @@
   <dimension ref="A1:CJ155"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="M133" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="BJ2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A151" sqref="A151:XFD151"/>
+      <selection pane="bottomRight" activeCell="BL160" sqref="BL160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16640,11 +17192,11 @@
       </c>
       <c r="F5">
         <f>VLOOKUP(B5,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="G5">
         <f>VLOOKUP(C5,away!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="H5">
         <f>VLOOKUP(A5,away!$A$2:$E$405,3,FALSE)</f>
@@ -16652,235 +17204,235 @@
       </c>
       <c r="I5">
         <f>VLOOKUP(C5,away!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="J5">
         <f>VLOOKUP(B5,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.4294888888888968</v>
       </c>
       <c r="L5" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.2578666666666682</v>
       </c>
       <c r="M5" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>2.5038126507045518E-2</v>
       </c>
       <c r="N5" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.0829850147461631E-2</v>
       </c>
       <c r="O5" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3.1494624728995696E-2</v>
       </c>
       <c r="P5" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>7.6515840838820501E-2</v>
       </c>
       <c r="Q5" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7.3892722523017346E-2</v>
       </c>
       <c r="R5" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.9808019312889717E-2</v>
       </c>
       <c r="S5" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.8457587647624702E-2</v>
       </c>
       <c r="T5" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.294719257095288E-2</v>
       </c>
       <c r="U5" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4.8123362831562239E-2</v>
       </c>
       <c r="V5" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.9849423864345475E-2</v>
       </c>
       <c r="W5" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.9840516113140327E-2</v>
       </c>
       <c r="X5" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>7.5271390534848881E-2</v>
       </c>
       <c r="Y5" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>4.7340686553717683E-2</v>
       </c>
       <c r="Z5" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>8.3052824087911925E-3</v>
       </c>
       <c r="AA5" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.0177591331242608E-2</v>
       </c>
       <c r="AB5" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2.451061697189743E-2</v>
       </c>
       <c r="AC5" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>3.7912065742997207E-3</v>
       </c>
       <c r="AD5" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3.6345467250562875E-2</v>
       </c>
       <c r="AE5" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>4.5717751738908081E-2</v>
       </c>
       <c r="AF5" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2.8753417993657292E-2</v>
       </c>
       <c r="AG5" s="5">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>1.2055988682318365E-2</v>
       </c>
       <c r="AH5" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2.6117344748178739E-3</v>
       </c>
       <c r="AI5" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>6.3451798872981016E-3</v>
       </c>
       <c r="AJ5" s="5">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>7.7077720170960224E-3</v>
       </c>
       <c r="AK5" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>6.2419821578745156E-3</v>
       </c>
       <c r="AL5" s="5">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>4.6343301084380889E-4</v>
       </c>
       <c r="AM5" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1.7660181769343541E-2</v>
       </c>
       <c r="AN5" s="5">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2.2214153974931625E-2</v>
       </c>
       <c r="AO5" s="5">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1.3971221906633682E-2</v>
       </c>
       <c r="AP5" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>5.8579781096525473E-3</v>
       </c>
       <c r="AQ5" s="5">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1.8421388495487403E-3</v>
       </c>
       <c r="AR5" s="5">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>6.5704274761151592E-4</v>
       </c>
       <c r="AS5" s="5">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1.5962780548472093E-3</v>
       </c>
       <c r="AT5" s="5">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1.9390698989142385E-3</v>
       </c>
       <c r="AU5" s="5">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1.5703162580636863E-3</v>
       </c>
       <c r="AV5" s="5">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>9.5376647525182942E-4</v>
       </c>
       <c r="AW5" s="5">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>3.9339966953555668E-5</v>
       </c>
       <c r="AX5" s="5">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>7.1508692307297294E-3</v>
       </c>
       <c r="AY5" s="5">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>8.9948400430272472E-3</v>
       </c>
       <c r="AZ5" s="5">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>5.6571547310612777E-3</v>
       </c>
       <c r="BA5" s="5">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>2.3719821214592068E-3</v>
       </c>
       <c r="BB5" s="5">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>7.4590931112820632E-4</v>
       </c>
       <c r="BC5" s="5">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1.8765089176489349E-4</v>
       </c>
       <c r="BD5" s="5">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1.3774536179926759E-4</v>
       </c>
       <c r="BE5" s="5">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>3.3465082598730159E-4</v>
       </c>
       <c r="BF5" s="5">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>4.0651523169682056E-4</v>
       </c>
       <c r="BG5" s="5">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>3.2920807952384036E-4</v>
       </c>
       <c r="BH5" s="5">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>1.9995184283390575E-4</v>
       </c>
       <c r="BI5" s="5">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>9.7156156095566502E-5</v>
       </c>
       <c r="BJ5" s="8">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.61964906504786599</v>
       </c>
       <c r="BK5" s="8">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0.19311045848600697</v>
       </c>
       <c r="BL5" s="8">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>0.17524258464629947</v>
       </c>
       <c r="BM5" s="8">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.69977270645465939</v>
       </c>
       <c r="BN5" s="8">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0.28757918405823041</v>
       </c>
     </row>
     <row r="6" spans="1:88" x14ac:dyDescent="0.25">
@@ -17430,7 +17982,7 @@
       </c>
       <c r="G8">
         <f>VLOOKUP(C8,away!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H8">
         <f>VLOOKUP(A8,away!$A$2:$E$405,3,FALSE)</f>
@@ -17438,7 +17990,7 @@
       </c>
       <c r="I8">
         <f>VLOOKUP(C8,away!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J8">
         <f>VLOOKUP(B8,home!$B$2:$E$405,4,FALSE)</f>
@@ -17446,227 +17998,227 @@
       </c>
       <c r="K8" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.6219401197604817</v>
       </c>
       <c r="L8" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.48637724550898043</v>
       </c>
       <c r="M8" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.12144213737074562</v>
       </c>
       <c r="N8" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.196971874831076</v>
       </c>
       <c r="O8" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.9066692263106471E-2</v>
       </c>
       <c r="P8" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9.5802637923078429E-2</v>
       </c>
       <c r="Q8" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.15973829312648102</v>
       </c>
       <c r="R8" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1.4364347542128161E-2</v>
       </c>
       <c r="S8" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1.8894070937258142E-2</v>
       </c>
       <c r="T8" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7.7693071013163945E-2</v>
       </c>
       <c r="U8" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2.329811157276053E-2</v>
       </c>
       <c r="V8" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.6561173137761868E-3</v>
       </c>
       <c r="W8" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>8.6361982094633194E-2</v>
       </c>
       <c r="X8" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>4.2004502967883578E-2</v>
       </c>
       <c r="Y8" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.0215017226246502E-2</v>
       </c>
       <c r="Z8" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2.3288305970246633E-3</v>
       </c>
       <c r="AA8" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>3.7772237774400565E-3</v>
       </c>
       <c r="AB8" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3.063215392971632E-3</v>
       </c>
       <c r="AC8" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>8.1654322587736527E-5</v>
       </c>
       <c r="AD8" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>3.5018490895330469E-2</v>
       </c>
       <c r="AE8" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.7032197143552145E-2</v>
       </c>
       <c r="AF8" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4.1420365658234072E-3</v>
       </c>
       <c r="AG8" s="5">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>6.7153077856088865E-4</v>
       </c>
       <c r="AH8" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2.8317255275947252E-4</v>
       </c>
       <c r="AI8" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4.5928892413558015E-4</v>
       </c>
       <c r="AJ8" s="5">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>3.7246956630856287E-4</v>
       </c>
       <c r="AK8" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2.0137444432854836E-4</v>
       </c>
       <c r="AL8" s="5">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2.5766013909473845E-6</v>
       </c>
       <c r="AM8" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>1.1359579063320718E-2</v>
       </c>
       <c r="AN8" s="5">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>5.5250407749594154E-3</v>
       </c>
       <c r="AO8" s="5">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1.3436270567247811E-3</v>
       </c>
       <c r="AP8" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>2.1783654228037927E-4</v>
       </c>
       <c r="AQ8" s="5">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2.6487684351382853E-5</v>
       </c>
       <c r="AR8" s="5">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>2.7545737242979747E-5</v>
       </c>
       <c r="AS8" s="5">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>4.4677536362769336E-5</v>
       </c>
       <c r="AT8" s="5">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>3.6232144339416688E-5</v>
       </c>
       <c r="AU8" s="5">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1.9588789509684184E-5</v>
       </c>
       <c r="AV8" s="5">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>7.9429609008250068E-6</v>
       </c>
       <c r="AW8" s="5">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>5.646155066869627E-8</v>
       </c>
       <c r="AX8" s="5">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>3.0707595043985136E-3</v>
       </c>
       <c r="AY8" s="5">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>1.493547549369871E-3</v>
       </c>
       <c r="AZ8" s="5">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>3.6321377154960283E-4</v>
       </c>
       <c r="BA8" s="5">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>5.8886304579074647E-5</v>
       </c>
       <c r="BB8" s="5">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>7.1602396548432964E-6</v>
       </c>
       <c r="BC8" s="5">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>6.9651552810137144E-7</v>
       </c>
       <c r="BD8" s="5">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>2.232936634292436E-6</v>
       </c>
       <c r="BE8" s="5">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>3.6216895120418405E-6</v>
       </c>
       <c r="BF8" s="5">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>2.9370817604482118E-6</v>
       </c>
       <c r="BG8" s="5">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1.5879235807625665E-6</v>
       </c>
       <c r="BH8" s="5">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>6.4387924068813228E-7</v>
       </c>
       <c r="BI8" s="5">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>2.0886671455059927E-7</v>
       </c>
       <c r="BJ8" s="8">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.65331583164946805</v>
       </c>
       <c r="BK8" s="8">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0.23937274201820694</v>
       </c>
       <c r="BL8" s="8">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>0.10503311558173747</v>
       </c>
       <c r="BM8" s="8">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.35117104570200197</v>
       </c>
       <c r="BN8" s="8">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0.64738598305661565</v>
       </c>
     </row>
     <row r="9" spans="1:88" x14ac:dyDescent="0.25">
@@ -17688,7 +18240,7 @@
       </c>
       <c r="F9">
         <f>VLOOKUP(B9,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="G9">
         <f>VLOOKUP(C9,away!$B$2:$E$405,4,FALSE)</f>
@@ -17704,231 +18256,231 @@
       </c>
       <c r="J9">
         <f>VLOOKUP(B9,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="K9" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.0812934131736547</v>
       </c>
       <c r="L9" s="3">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.5482155688622705</v>
       </c>
       <c r="M9" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>7.2113862748980184E-2</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7.7976244788981269E-2</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.11164780503876806</v>
       </c>
       <c r="P9" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.12072403618371629</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4.215759993717097E-2</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>8.6427434995160105E-2</v>
       </c>
       <c r="S9" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.0525281675794516E-2</v>
       </c>
       <c r="T9" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.5269052568595165E-2</v>
       </c>
       <c r="U9" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9.3453416177760845E-2</v>
       </c>
       <c r="V9" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>9.3981251018316128E-3</v>
       </c>
       <c r="W9" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>1.5194911709091017E-2</v>
       </c>
       <c r="X9" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>2.3524998875502322E-2</v>
       </c>
       <c r="Y9" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1.8210884758260056E-2</v>
       </c>
       <c r="Z9" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4.4602766812112893E-2</v>
       </c>
       <c r="AA9" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>4.8228677963258165E-2</v>
       </c>
       <c r="AB9" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2.6074675903872215E-2</v>
       </c>
       <c r="AC9" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>9.833230668161799E-4</v>
       </c>
       <c r="AD9" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>4.1075394861988385E-3</v>
       </c>
       <c r="AE9" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>6.3593565822495732E-3</v>
       </c>
       <c r="AF9" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4.9228274342927748E-3</v>
       </c>
       <c r="AG9" s="5">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>2.5405326921981264E-3</v>
       </c>
       <c r="AH9" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1.7263674498211649E-2</v>
       </c>
       <c r="AI9" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.8667097522090257E-2</v>
       </c>
       <c r="AJ9" s="5">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1.0092304796853219E-2</v>
       </c>
       <c r="AK9" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>3.6375809001927555E-3</v>
       </c>
       <c r="AL9" s="5">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>6.5846274196581259E-5</v>
       </c>
       <c r="AM9" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>8.8829107815550088E-4</v>
       </c>
       <c r="AN9" s="5">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>1.3752660768817982E-3</v>
       </c>
       <c r="AO9" s="5">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>1.0646041757782685E-3</v>
       </c>
       <c r="AP9" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>5.4941225320523336E-4</v>
       </c>
       <c r="AQ9" s="5">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>2.1265215103401065E-4</v>
       </c>
       <c r="AR9" s="5">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>5.3455779267803641E-3</v>
       </c>
       <c r="AS9" s="5">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>5.7801382018340891E-3</v>
       </c>
       <c r="AT9" s="5">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>3.1250126824383059E-3</v>
       </c>
       <c r="AU9" s="5">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1.1263518765348914E-3</v>
       </c>
       <c r="AV9" s="5">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>3.0447921625324087E-4</v>
       </c>
       <c r="AW9" s="5">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>3.0619894727150288E-6</v>
       </c>
       <c r="AX9" s="5">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>1.6008388196507778E-4</v>
       </c>
       <c r="AY9" s="5">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>2.4784435838224347E-4</v>
       </c>
       <c r="AZ9" s="5">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1.9185824715103479E-4</v>
       </c>
       <c r="BA9" s="5">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>9.90126417512858E-5</v>
       </c>
       <c r="BB9" s="5">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>3.8323228368380798E-5</v>
       </c>
       <c r="BC9" s="5">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1.1866523761798278E-5</v>
       </c>
       <c r="BD9" s="5">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1.3793511618013098E-3</v>
       </c>
       <c r="BE9" s="5">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1.4914833257091845E-3</v>
       </c>
       <c r="BF9" s="5">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>8.0636554797383869E-4</v>
       </c>
       <c r="BG9" s="5">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>2.9063925187809215E-4</v>
       </c>
       <c r="BH9" s="5">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>7.8566577166374948E-5</v>
       </c>
       <c r="BI9" s="5">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1.6990704477120185E-5</v>
       </c>
       <c r="BJ9" s="8">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.26510316344897472</v>
       </c>
       <c r="BK9" s="8">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0.25405831940971768</v>
       </c>
       <c r="BL9" s="8">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>0.43523762426901419</v>
       </c>
       <c r="BM9" s="8">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.48771010787813301</v>
       </c>
       <c r="BN9" s="8">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0.5110469836927769</v>
       </c>
     </row>
     <row r="10" spans="1:88" x14ac:dyDescent="0.25">
@@ -18736,11 +19288,11 @@
       </c>
       <c r="F13">
         <f>VLOOKUP(B13,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.97</v>
       </c>
       <c r="G13">
         <f>VLOOKUP(C13,away!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="H13">
         <f>VLOOKUP(A13,away!$A$2:$E$405,3,FALSE)</f>
@@ -18748,235 +19300,235 @@
       </c>
       <c r="I13">
         <f>VLOOKUP(C13,away!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="J13">
         <f>VLOOKUP(B13,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1.8211211111111125</v>
       </c>
       <c r="L13" s="3">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1.0587055555555567</v>
       </c>
       <c r="M13" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>5.6144493703009106E-2</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.10224592275519477</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.9440487397229708E-2</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.10824832645382902</v>
       </c>
       <c r="Q13" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>9.3101104227260686E-2</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3.1464987116188572E-2</v>
       </c>
       <c r="S13" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>5.2176533294781176E-2</v>
       </c>
       <c r="T13" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>9.8566656273757811E-2</v>
       </c>
       <c r="U13" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>5.7301552298130158E-2</v>
       </c>
       <c r="V13" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.1177552847834291E-2</v>
       </c>
       <c r="W13" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.651612879200682E-2</v>
       </c>
       <c r="X13" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>5.9833939530590977E-2</v>
       </c>
       <c r="Y13" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>3.167326209590595E-2</v>
       </c>
       <c r="Z13" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1.110405222179762E-2</v>
       </c>
       <c r="AA13" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>2.0221823919995895E-2</v>
       </c>
       <c r="AB13" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1.8413195222938106E-2</v>
       </c>
       <c r="AC13" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1.3469168009908117E-3</v>
       </c>
       <c r="AD13" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>2.5730678815349552E-2</v>
       </c>
       <c r="AE13" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>2.7241212610026242E-2</v>
       </c>
       <c r="AF13" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.4420211565152434E-2</v>
       </c>
       <c r="AG13" s="5">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>5.088919365437791E-3</v>
       </c>
       <c r="AH13" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>2.9389804440990404E-3</v>
       </c>
       <c r="AI13" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>5.3522393318914735E-3</v>
       </c>
       <c r="AJ13" s="5">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>4.8735380195134015E-3</v>
       </c>
       <c r="AK13" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2.9584343243794988E-3</v>
       </c>
       <c r="AL13" s="5">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1.0387589589893204E-4</v>
       </c>
       <c r="AM13" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>9.3717364787705062E-3</v>
       </c>
       <c r="AN13" s="5">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>9.9219094752770048E-3</v>
       </c>
       <c r="AO13" s="5">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>5.2521903415975423E-3</v>
       </c>
       <c r="AP13" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1.8535076978281851E-3</v>
       </c>
       <c r="AQ13" s="5">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>4.905797242389223E-4</v>
       </c>
       <c r="AR13" s="5">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>6.223029847673584E-4</v>
       </c>
       <c r="AS13" s="5">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>1.1332891030672932E-3</v>
       </c>
       <c r="AT13" s="5">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>1.0319283552940128E-3</v>
       </c>
       <c r="AU13" s="5">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>6.2642217099336515E-4</v>
       </c>
       <c r="AV13" s="5">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>2.8519766001601819E-4</v>
       </c>
       <c r="AW13" s="5">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>5.5632208710892734E-6</v>
       </c>
       <c r="AX13" s="5">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>2.8445111915431785E-3</v>
       </c>
       <c r="AY13" s="5">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>3.0114998013267198E-3</v>
       </c>
       <c r="AZ13" s="5">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1.5941457851095266E-3</v>
       </c>
       <c r="BA13" s="5">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>5.6257699968697693E-4</v>
       </c>
       <c r="BB13" s="5">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>1.4890084874909476E-4</v>
       </c>
       <c r="BC13" s="5">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>3.1528431159520867E-5</v>
       </c>
       <c r="BD13" s="5">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>1.0980593786866782E-4</v>
       </c>
       <c r="BE13" s="5">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>1.9996991157798607E-4</v>
       </c>
       <c r="BF13" s="5">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1.8208471378084652E-4</v>
       </c>
       <c r="BG13" s="5">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>1.1053277209230803E-4</v>
       </c>
       <c r="BH13" s="5">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>5.0323391181733855E-5</v>
       </c>
       <c r="BI13" s="5">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>1.8328998012751659E-5</v>
       </c>
       <c r="BJ13" s="8">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.5495011228059703</v>
       </c>
       <c r="BK13" s="8">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0.23220919879767005</v>
       </c>
       <c r="BL13" s="8">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>0.20733542407301817</v>
       </c>
       <c r="BM13" s="8">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.54649853966528872</v>
       </c>
       <c r="BN13" s="8">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0.45064532165271187</v>
       </c>
     </row>
     <row r="14" spans="1:88" x14ac:dyDescent="0.25">
@@ -19788,7 +20340,7 @@
       </c>
       <c r="G17">
         <f>VLOOKUP(C17,away!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="H17">
         <f>VLOOKUP(A17,away!$A$2:$E$405,3,FALSE)</f>
@@ -19796,7 +20348,7 @@
       </c>
       <c r="I17">
         <f>VLOOKUP(C17,away!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="J17">
         <f>VLOOKUP(B17,home!$B$2:$E$405,4,FALSE)</f>
@@ -19804,227 +20356,227 @@
       </c>
       <c r="K17" s="3">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1.2877822222222242</v>
       </c>
       <c r="L17" s="3">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>0.56151944444444624</v>
       </c>
       <c r="M17" s="5">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0.15734700861690973</v>
       </c>
       <c r="N17" s="5">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.20262868041670345</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>8.8353404863562621E-2</v>
       </c>
       <c r="P17" s="5">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.11377994405609855</v>
       </c>
       <c r="Q17" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>0.13047080617648965</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>2.4806077406881462E-2</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2.0568989177493738E-2</v>
       </c>
       <c r="T17" s="5">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7.3261894600441482E-2</v>
       </c>
       <c r="U17" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3.1944825487650319E-2</v>
       </c>
       <c r="V17" s="5">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1.6526377367926811E-3</v>
       </c>
       <c r="W17" s="5">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v>5.6005994904361631E-2</v>
       </c>
       <c r="X17" s="5">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>3.1448455144255621E-2</v>
       </c>
       <c r="Y17" s="5">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>8.829459530619253E-3</v>
       </c>
       <c r="Z17" s="5">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>4.6430316014526686E-3</v>
       </c>
       <c r="AA17" s="5">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>5.9792135535667304E-3</v>
       </c>
       <c r="AB17" s="5">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>3.8499624585767037E-3</v>
       </c>
       <c r="AC17" s="5">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>7.4690421067631925E-5</v>
       </c>
       <c r="AD17" s="5">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>1.8030881143926362E-2</v>
       </c>
       <c r="AE17" s="5">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1.012469036278137E-2</v>
       </c>
       <c r="AF17" s="5">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2.842605253840517E-3</v>
       </c>
       <c r="AG17" s="5">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v>5.3205937430379703E-4</v>
       </c>
       <c r="AH17" s="5">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>6.5178813134642737E-4</v>
       </c>
       <c r="AI17" s="5">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>8.3936116820337327E-4</v>
       </c>
       <c r="AJ17" s="5">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>5.4045719521799112E-4</v>
       </c>
       <c r="AK17" s="5">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>2.3199705595793827E-4</v>
       </c>
       <c r="AL17" s="5">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>2.1603898301726756E-6</v>
       </c>
       <c r="AM17" s="5">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>4.6439696376300533E-3</v>
       </c>
       <c r="AN17" s="5">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>2.6076792509389032E-3</v>
       </c>
       <c r="AO17" s="5">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>7.3213130213826147E-4</v>
       </c>
       <c r="AP17" s="5">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>1.3703532067902186E-4</v>
       </c>
       <c r="AQ17" s="5">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1.9236999284237717E-5</v>
       </c>
       <c r="AR17" s="5">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>7.3198341881825963E-5</v>
       </c>
       <c r="AS17" s="5">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>9.4263523371559946E-5</v>
       </c>
       <c r="AT17" s="5">
         <f t="shared" si="35"/>
-        <v>0</v>
+        <v>6.0695444800962028E-5</v>
       </c>
       <c r="AU17" s="5">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>2.6054171594849734E-5</v>
       </c>
       <c r="AV17" s="5">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>8.3880247486436929E-6</v>
       </c>
       <c r="AW17" s="5">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>4.3394715811230755E-8</v>
       </c>
       <c r="AX17" s="5">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>9.9673692331329281E-4</v>
       </c>
       <c r="AY17" s="5">
         <f t="shared" si="40"/>
-        <v>0</v>
+        <v>5.5968716343614668E-4</v>
       </c>
       <c r="AZ17" s="5">
         <f t="shared" si="41"/>
-        <v>0</v>
+        <v>1.5713761253767654E-4</v>
       </c>
       <c r="BA17" s="5">
         <f t="shared" si="42"/>
-        <v>0</v>
+        <v>2.9411941631160926E-5</v>
       </c>
       <c r="BB17" s="5">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v>4.1288442811904903E-6</v>
       </c>
       <c r="BC17" s="5">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>4.6368526939434279E-7</v>
       </c>
       <c r="BD17" s="5">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>6.8503820446229201E-6</v>
       </c>
       <c r="BE17" s="5">
         <f t="shared" si="46"/>
-        <v>0</v>
+        <v>8.8218002124957272E-6</v>
       </c>
       <c r="BF17" s="5">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>5.6802787408241199E-6</v>
       </c>
       <c r="BG17" s="5">
         <f t="shared" si="48"/>
-        <v>0</v>
+        <v>2.4383206599000467E-6</v>
       </c>
       <c r="BH17" s="5">
         <f t="shared" si="49"/>
-        <v>0</v>
+        <v>7.8500649947411131E-7</v>
       </c>
       <c r="BI17" s="5">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>2.0218348287033187E-7</v>
       </c>
       <c r="BJ17" s="8">
         <f t="shared" si="51"/>
-        <v>0</v>
+        <v>0.54406314558886215</v>
       </c>
       <c r="BK17" s="8">
         <f t="shared" si="52"/>
-        <v>1</v>
+        <v>0.29398511756162865</v>
       </c>
       <c r="BL17" s="8">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>0.15748446479900163</v>
       </c>
       <c r="BM17" s="8">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.28223019424557955</v>
       </c>
       <c r="BN17" s="8">
         <f t="shared" si="55"/>
-        <v>1</v>
+        <v>0.71738592153664549</v>
       </c>
     </row>
     <row r="18" spans="1:66" x14ac:dyDescent="0.25">
@@ -34194,7 +34746,7 @@
       </c>
       <c r="F72">
         <f>VLOOKUP(B72,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G72">
         <f>VLOOKUP(C72,away!$B$2:$E$405,4,FALSE)</f>
@@ -34210,231 +34762,231 @@
       </c>
       <c r="J72">
         <f>VLOOKUP(B72,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="K72" s="3">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1.4788888888888883</v>
       </c>
       <c r="L72" s="3">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>1.0920825396825409</v>
       </c>
       <c r="M72" s="5">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>7.6461232708947988E-2</v>
       </c>
       <c r="N72" s="5">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.1130776674840108</v>
       </c>
       <c r="O72" s="5">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>8.3501977204045674E-2</v>
       </c>
       <c r="P72" s="5">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>0.12349014628731636</v>
       </c>
       <c r="Q72" s="5">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>8.361465301178797E-2</v>
       </c>
       <c r="R72" s="5">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>4.5595525666753907E-2</v>
       </c>
       <c r="S72" s="5">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>4.986126854674084E-2</v>
       </c>
       <c r="T72" s="5">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>9.1314102615787804E-2</v>
       </c>
       <c r="U72" s="5">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>6.7430716291610474E-2</v>
       </c>
       <c r="V72" s="5">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>8.9477084279739692E-3</v>
       </c>
       <c r="W72" s="5">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>4.1218927095811014E-2</v>
       </c>
       <c r="X72" s="5">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>4.5014470585782784E-2</v>
       </c>
       <c r="Y72" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2.4579758679893347E-2</v>
       </c>
       <c r="Z72" s="5">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>1.6598025822769698E-2</v>
       </c>
       <c r="AA72" s="5">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>2.4546635966784951E-2</v>
       </c>
       <c r="AB72" s="5">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1.8150873595439314E-2</v>
       </c>
       <c r="AC72" s="5">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>9.0319775751000482E-4</v>
       </c>
       <c r="AD72" s="5">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1.5239553323479012E-2</v>
       </c>
       <c r="AE72" s="5">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1.6642850097132462E-2</v>
       </c>
       <c r="AF72" s="5">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>9.0876830008161207E-3</v>
       </c>
       <c r="AG72" s="5">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>3.3081666437870414E-3</v>
       </c>
       <c r="AH72" s="5">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>4.5316035485616808E-3</v>
       </c>
       <c r="AI72" s="5">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>6.7017381368173271E-3</v>
       </c>
       <c r="AJ72" s="5">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>4.9555630333910335E-3</v>
       </c>
       <c r="AK72" s="5">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>2.4429090360901717E-3</v>
       </c>
       <c r="AL72" s="5">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>5.8349058339591235E-5</v>
       </c>
       <c r="AM72" s="5">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>4.5075212163445694E-3</v>
       </c>
       <c r="AN72" s="5">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>4.9225852176185128E-3</v>
       </c>
       <c r="AO72" s="5">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2.6879346831302788E-3</v>
       </c>
       <c r="AP72" s="5">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>9.7848217841790038E-4</v>
       </c>
       <c r="AQ72" s="5">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>2.6714582561018139E-4</v>
       </c>
       <c r="AR72" s="5">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>9.8977702242953117E-4</v>
       </c>
       <c r="AS72" s="5">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1.4637702409485615E-3</v>
       </c>
       <c r="AT72" s="5">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>1.0823767726125194E-3</v>
       </c>
       <c r="AU72" s="5">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>5.3357166086935668E-4</v>
       </c>
       <c r="AV72" s="5">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>1.9727330017142041E-4</v>
       </c>
       <c r="AW72" s="5">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>2.6177149934527226E-6</v>
       </c>
       <c r="AX72" s="5">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>1.1110205072138175E-3</v>
       </c>
       <c r="AY72" s="5">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1.2133260971574503E-3</v>
       </c>
       <c r="AZ72" s="5">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>6.6252612282340681E-4</v>
       </c>
       <c r="BA72" s="5">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2.4117773693967107E-4</v>
       </c>
       <c r="BB72" s="5">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>6.5846498867990923E-5</v>
       </c>
       <c r="BC72" s="5">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>1.438196234259182E-5</v>
       </c>
       <c r="BD72" s="5">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>1.801530340623776E-4</v>
       </c>
       <c r="BE72" s="5">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>2.6642632037447164E-4</v>
       </c>
       <c r="BF72" s="5">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1.9700746245467868E-4</v>
       </c>
       <c r="BG72" s="5">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>9.7117382417473053E-5</v>
       </c>
       <c r="BH72" s="5">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>3.5906454443793494E-5</v>
       </c>
       <c r="BI72" s="5">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1.0620331303264253E-5</v>
       </c>
       <c r="BJ72" s="8">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>0.45976978058475482</v>
       </c>
       <c r="BK72" s="8">
         <f t="shared" si="108"/>
-        <v>1</v>
+        <v>0.26093522888398624</v>
       </c>
       <c r="BL72" s="8">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>0.26291154246158199</v>
       </c>
       <c r="BM72" s="8">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>0.47326266700806602</v>
       </c>
       <c r="BN72" s="8">
         <f t="shared" si="111"/>
-        <v>1</v>
+        <v>0.5257412023628627</v>
       </c>
     </row>
     <row r="73" spans="1:66" x14ac:dyDescent="0.25">
@@ -34460,7 +35012,7 @@
       </c>
       <c r="G73">
         <f>VLOOKUP(C73,away!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="H73">
         <f>VLOOKUP(A73,away!$A$2:$E$405,3,FALSE)</f>
@@ -34468,7 +35020,7 @@
       </c>
       <c r="I73">
         <f>VLOOKUP(C73,away!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="J73">
         <f>VLOOKUP(B73,home!$B$2:$E$405,4,FALSE)</f>
@@ -34476,227 +35028,227 @@
       </c>
       <c r="K73" s="3">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1.7311322751322746</v>
       </c>
       <c r="L73" s="3">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>0.28899894179894209</v>
       </c>
       <c r="M73" s="5">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0.132638059579058</v>
       </c>
       <c r="N73" s="5">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.22961402584822482</v>
       </c>
       <c r="O73" s="5">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>3.833225886061279E-2</v>
       </c>
       <c r="P73" s="5">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>6.6358210492331912E-2</v>
       </c>
       <c r="Q73" s="5">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.19874612548445922</v>
       </c>
       <c r="R73" s="5">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>5.5389911237401085E-3</v>
       </c>
       <c r="S73" s="5">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>8.2996767928439248E-3</v>
       </c>
       <c r="T73" s="5">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>5.7437419951648472E-2</v>
       </c>
       <c r="U73" s="5">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>9.5887263059776882E-3</v>
       </c>
       <c r="V73" s="5">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>4.6136556496154742E-4</v>
       </c>
       <c r="W73" s="5">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>0.11468527746121213</v>
       </c>
       <c r="X73" s="5">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>3.3143923826208371E-2</v>
       </c>
       <c r="Y73" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>4.7892794564194808E-3</v>
       </c>
       <c r="Z73" s="5">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>5.3358752446487471E-4</v>
       </c>
       <c r="AA73" s="5">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>9.2371058520907673E-4</v>
       </c>
       <c r="AB73" s="5">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>7.9953260346837709E-4</v>
       </c>
       <c r="AC73" s="5">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1.44261917407009E-5</v>
       </c>
       <c r="AD73" s="5">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>4.9633846323901096E-2</v>
       </c>
       <c r="AE73" s="5">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1.4344129065018729E-2</v>
       </c>
       <c r="AF73" s="5">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>2.0727190604089302E-3</v>
       </c>
       <c r="AG73" s="5">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1.9967120503489277E-4</v>
       </c>
       <c r="AH73" s="5">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>3.8551557481866474E-5</v>
       </c>
       <c r="AI73" s="5">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>6.6737845413476172E-5</v>
       </c>
       <c r="AJ73" s="5">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>5.7766019084028536E-5</v>
       </c>
       <c r="AK73" s="5">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>3.3333540014089564E-5</v>
       </c>
       <c r="AL73" s="5">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>2.8869429217232513E-7</v>
       </c>
       <c r="AM73" s="5">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>1.7184550662052111E-2</v>
       </c>
       <c r="AN73" s="5">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>4.9663169566233701E-3</v>
       </c>
       <c r="AO73" s="5">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>7.176301725511482E-4</v>
       </c>
       <c r="AP73" s="5">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>6.9131453490091344E-5</v>
       </c>
       <c r="AQ73" s="5">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>4.9947292259147941E-6</v>
       </c>
       <c r="AR73" s="5">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>2.2282718633921017E-6</v>
       </c>
       <c r="AS73" s="5">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>3.8574333404872014E-6</v>
       </c>
       <c r="AT73" s="5">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>3.3388636774443503E-6</v>
       </c>
       <c r="AU73" s="5">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>1.9266715580969167E-6</v>
       </c>
       <c r="AV73" s="5">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>8.3383082945024024E-7</v>
       </c>
       <c r="AW73" s="5">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>4.012011808824282E-9</v>
       </c>
       <c r="AX73" s="5">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>4.9581217141206821E-3</v>
       </c>
       <c r="AY73" s="5">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1.4328919286912341E-3</v>
       </c>
       <c r="AZ73" s="5">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>2.0705212555200591E-4</v>
       </c>
       <c r="BA73" s="5">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>1.994594839391713E-5</v>
       </c>
       <c r="BB73" s="5">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>1.4410894947545895E-6</v>
       </c>
       <c r="BC73" s="5">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>8.3294667804329757E-8</v>
       </c>
       <c r="BD73" s="5">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>1.073280350934456E-7</v>
       </c>
       <c r="BE73" s="5">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1.8579902557679309E-7</v>
       </c>
       <c r="BF73" s="5">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>1.6082134493205678E-7</v>
       </c>
       <c r="BG73" s="5">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>9.2801006914021243E-8</v>
       </c>
       <c r="BH73" s="5">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>4.0162704558408898E-8</v>
       </c>
       <c r="BI73" s="5">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1.3905390823532749E-8</v>
       </c>
       <c r="BJ73" s="8">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>0.73422857775739925</v>
       </c>
       <c r="BK73" s="8">
         <f t="shared" si="108"/>
-        <v>1</v>
+        <v>0.20920491924391948</v>
       </c>
       <c r="BL73" s="8">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>5.5392394329778272E-2</v>
       </c>
       <c r="BM73" s="8">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>0.3266989195504556</v>
       </c>
       <c r="BN73" s="8">
         <f t="shared" si="111"/>
-        <v>1</v>
+        <v>0.67122767138842687</v>
       </c>
     </row>
     <row r="74" spans="1:66" x14ac:dyDescent="0.25">
@@ -34980,11 +35532,11 @@
       </c>
       <c r="F75">
         <f>VLOOKUP(B75,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="G75">
         <f>VLOOKUP(C75,away!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="H75">
         <f>VLOOKUP(A75,away!$A$2:$E$405,3,FALSE)</f>
@@ -34992,235 +35544,235 @@
       </c>
       <c r="I75">
         <f>VLOOKUP(C75,away!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J75">
         <f>VLOOKUP(B75,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="K75" s="3">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>1.2637777777777772</v>
       </c>
       <c r="L75" s="3">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>0.71715343915343988</v>
       </c>
       <c r="M75" s="5">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0.13794072474525398</v>
       </c>
       <c r="N75" s="5">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.17432642258361311</v>
       </c>
       <c r="O75" s="5">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>9.8924665150376873E-2</v>
       </c>
       <c r="P75" s="5">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>0.12501879349115402</v>
       </c>
       <c r="Q75" s="5">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.11015492947033416</v>
       </c>
       <c r="R75" s="5">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>3.5472081914847603E-2</v>
       </c>
       <c r="S75" s="5">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>2.8326838855690397E-2</v>
       </c>
       <c r="T75" s="5">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>7.8997986509354745E-2</v>
       </c>
       <c r="U75" s="5">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>4.4828828855497389E-2</v>
       </c>
       <c r="V75" s="5">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>2.8525837405860904E-3</v>
       </c>
       <c r="W75" s="5">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>4.6403783992428886E-2</v>
       </c>
       <c r="X75" s="5">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>3.3278633279903713E-2</v>
       </c>
       <c r="Y75" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1.1932943153504532E-2</v>
       </c>
       <c r="Z75" s="5">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>8.4796418463885023E-3</v>
       </c>
       <c r="AA75" s="5">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>1.0716382928980308E-2</v>
       </c>
       <c r="AB75" s="5">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>6.7715633019012214E-3</v>
       </c>
       <c r="AC75" s="5">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1.61585065903836E-4</v>
       </c>
       <c r="AD75" s="5">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1.4661017753607945E-2</v>
       </c>
       <c r="AE75" s="5">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1.0514199303489576E-2</v>
       </c>
       <c r="AF75" s="5">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>3.7701470952211254E-3</v>
       </c>
       <c r="AG75" s="5">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>9.0125798515072741E-4</v>
       </c>
       <c r="AH75" s="5">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1.5203010782317346E-3</v>
       </c>
       <c r="AI75" s="5">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1.9213227182008599E-3</v>
       </c>
       <c r="AJ75" s="5">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1.214062477600921E-3</v>
       </c>
       <c r="AK75" s="5">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>5.1143506000862467E-4</v>
       </c>
       <c r="AL75" s="5">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>5.8579277505735213E-6</v>
       </c>
       <c r="AM75" s="5">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>3.7056536873230346E-3</v>
       </c>
       <c r="AN75" s="5">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>2.6575222861753393E-3</v>
       </c>
       <c r="AO75" s="5">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>9.5292562357877832E-4</v>
       </c>
       <c r="AP75" s="5">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>2.2779796273565244E-4</v>
       </c>
       <c r="AQ75" s="5">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>4.0841523102005069E-5</v>
       </c>
       <c r="AR75" s="5">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>2.1805782936051431E-4</v>
       </c>
       <c r="AS75" s="5">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.755766390162765E-4</v>
       </c>
       <c r="AT75" s="5">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>1.7413381623172935E-4</v>
       </c>
       <c r="AU75" s="5">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>7.3355482437766228E-5</v>
       </c>
       <c r="AV75" s="5">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>2.3176257145754247E-5</v>
       </c>
       <c r="AW75" s="5">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>1.4747700528766624E-7</v>
       </c>
       <c r="AX75" s="5">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>7.8052046369652252E-4</v>
       </c>
       <c r="AY75" s="5">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>5.5975293486959868E-4</v>
       </c>
       <c r="AZ75" s="5">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>2.0071437115898202E-4</v>
       </c>
       <c r="BA75" s="5">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>4.7981000521394668E-5</v>
       </c>
       <c r="BB75" s="5">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>8.6024348844852939E-6</v>
       </c>
       <c r="BC75" s="5">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>1.2338531525004307E-6</v>
       </c>
       <c r="BD75" s="5">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>2.6063487043371119E-5</v>
       </c>
       <c r="BE75" s="5">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>3.2938455736811443E-5</v>
       </c>
       <c r="BF75" s="5">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>2.0813444197249623E-5</v>
       </c>
       <c r="BG75" s="5">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>8.7678560851672985E-6</v>
       </c>
       <c r="BH75" s="5">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>2.7701554197970232E-6</v>
       </c>
       <c r="BI75" s="5">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>7.0017217210602888E-7</v>
       </c>
       <c r="BJ75" s="8">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>0.49412486726780674</v>
       </c>
       <c r="BK75" s="8">
         <f t="shared" si="108"/>
-        <v>1</v>
+        <v>0.29486613676120854</v>
       </c>
       <c r="BL75" s="8">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>0.20273699708049209</v>
       </c>
       <c r="BM75" s="8">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>0.31781042014245181</v>
       </c>
       <c r="BN75" s="8">
         <f t="shared" si="111"/>
-        <v>1</v>
+        <v>0.68183761735557968</v>
       </c>
     </row>
     <row r="76" spans="1:66" x14ac:dyDescent="0.25">
@@ -37076,7 +37628,7 @@
       </c>
       <c r="F83">
         <f>VLOOKUP(B83,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="G83">
         <f>VLOOKUP(C83,away!$B$2:$E$405,4,FALSE)</f>
@@ -37092,231 +37644,231 @@
       </c>
       <c r="J83">
         <f>VLOOKUP(B83,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="K83" s="3">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>0.87920958083832468</v>
       </c>
       <c r="L83" s="3">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>0.24779640718562798</v>
       </c>
       <c r="M83" s="5">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>0.32400187115914014</v>
       </c>
       <c r="N83" s="5">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.28486554933266045</v>
       </c>
       <c r="O83" s="5">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>8.0286499594655655E-2</v>
       </c>
       <c r="P83" s="5">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>7.0588659655593522E-2</v>
       </c>
       <c r="Q83" s="5">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>0.12522826011202376</v>
       </c>
       <c r="R83" s="5">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>9.9473530725330238E-3</v>
       </c>
       <c r="S83" s="5">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>3.844699147991828E-3</v>
       </c>
       <c r="T83" s="5">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>3.1031112933866772E-2</v>
       </c>
       <c r="U83" s="5">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>8.7458081253525798E-3</v>
       </c>
       <c r="V83" s="5">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>9.3069476099292775E-5</v>
       </c>
       <c r="W83" s="5">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>3.6700628694068371E-2</v>
       </c>
       <c r="X83" s="5">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>9.0942839318439075E-3</v>
       </c>
       <c r="Y83" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1.1267654421184532E-3</v>
       </c>
       <c r="Z83" s="5">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>8.2163945079353345E-4</v>
       </c>
       <c r="AA83" s="5">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>7.223932771324138E-4</v>
       </c>
       <c r="AB83" s="5">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>3.1756754519400663E-4</v>
       </c>
       <c r="AC83" s="5">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1.2672861944427158E-6</v>
       </c>
       <c r="AD83" s="5">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>8.0668860926537082E-3</v>
       </c>
       <c r="AE83" s="5">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1.9989453909352978E-3</v>
       </c>
       <c r="AF83" s="5">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>2.4766574301701862E-4</v>
       </c>
       <c r="AG83" s="5">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2.0456893767525412E-5</v>
       </c>
       <c r="AH83" s="5">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>5.0899825977152548E-5</v>
       </c>
       <c r="AI83" s="5">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>4.4751614662115957E-5</v>
       </c>
       <c r="AJ83" s="5">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>1.9673024184458597E-5</v>
       </c>
       <c r="AK83" s="5">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>5.765570449013357E-6</v>
       </c>
       <c r="AL83" s="5">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>1.1043891017754167E-8</v>
       </c>
       <c r="AM83" s="5">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>1.4184967080385163E-3</v>
       </c>
       <c r="AN83" s="5">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>3.5149838785658501E-4</v>
       </c>
       <c r="AO83" s="5">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>4.3550018821201062E-5</v>
       </c>
       <c r="AP83" s="5">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>3.5971793989200329E-6</v>
       </c>
       <c r="AQ83" s="5">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>2.2284203276363526E-7</v>
       </c>
       <c r="AR83" s="5">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>2.5225588007024205E-6</v>
       </c>
       <c r="AS83" s="5">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.2178578658056019E-6</v>
       </c>
       <c r="AT83" s="5">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>9.7498094227696229E-7</v>
       </c>
       <c r="AU83" s="5">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>2.8573752852822764E-7</v>
       </c>
       <c r="AV83" s="5">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>6.280579317177045E-8</v>
       </c>
       <c r="AW83" s="5">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>6.6835473437299554E-11</v>
       </c>
       <c r="AX83" s="5">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>2.0785931601584778E-4</v>
       </c>
       <c r="AY83" s="5">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>5.1506791708789135E-5</v>
       </c>
       <c r="AZ83" s="5">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>6.3815989655482196E-6</v>
       </c>
       <c r="BA83" s="5">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>5.271124319207895E-7</v>
       </c>
       <c r="BB83" s="5">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>3.2654141703212647E-8</v>
       </c>
       <c r="BC83" s="5">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>1.6183157987572961E-9</v>
       </c>
       <c r="BD83" s="5">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>1.0418016795475761E-7</v>
       </c>
       <c r="BE83" s="5">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>9.15962017991687E-8</v>
       </c>
       <c r="BF83" s="5">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>4.0266129095114861E-8</v>
       </c>
       <c r="BG83" s="5">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1.180078882789927E-8</v>
       </c>
       <c r="BH83" s="5">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>2.5938416497347247E-9</v>
       </c>
       <c r="BI83" s="5">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>4.5610608592485138E-10</v>
       </c>
       <c r="BJ83" s="8">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>0.50046422879468289</v>
       </c>
       <c r="BK83" s="8">
         <f t="shared" si="108"/>
-        <v>1</v>
+        <v>0.39858108456061903</v>
       </c>
       <c r="BL83" s="8">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>0.10014702648430635</v>
       </c>
       <c r="BM83" s="8">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>0.10504427963892189</v>
       </c>
       <c r="BN83" s="8">
         <f t="shared" si="111"/>
-        <v>1</v>
+        <v>0.89491819292660646</v>
       </c>
     </row>
     <row r="84" spans="1:66" x14ac:dyDescent="0.25">
@@ -37338,7 +37890,7 @@
       </c>
       <c r="F84">
         <f>VLOOKUP(B84,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="G84">
         <f>VLOOKUP(C84,away!$B$2:$E$405,4,FALSE)</f>
@@ -37354,231 +37906,231 @@
       </c>
       <c r="J84">
         <f>VLOOKUP(B84,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K84" s="3">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1.4097125748503017</v>
       </c>
       <c r="L84" s="3">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>1.2213473053892174</v>
       </c>
       <c r="M84" s="5">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>7.2002108171175694E-2</v>
       </c>
       <c r="N84" s="5">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.10150227730463805</v>
       </c>
       <c r="O84" s="5">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>8.7939580797208372E-2</v>
       </c>
       <c r="P84" s="5">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>0.12396953287688879</v>
       </c>
       <c r="Q84" s="5">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>7.1544518346145322E-2</v>
       </c>
       <c r="R84" s="5">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>5.3702385021863926E-2</v>
       </c>
       <c r="S84" s="5">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>5.3361094112610995E-2</v>
       </c>
       <c r="T84" s="5">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>8.7380704697434003E-2</v>
       </c>
       <c r="U84" s="5">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>7.5704927464774086E-2</v>
       </c>
       <c r="V84" s="5">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>1.0208265777770195E-2</v>
       </c>
       <c r="W84" s="5">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>3.3619069058056388E-2</v>
       </c>
       <c r="X84" s="5">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>4.1060559403751182E-2</v>
       </c>
       <c r="Y84" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>2.5074601792772707E-2</v>
       </c>
       <c r="Z84" s="5">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>2.1863087746475926E-2</v>
       </c>
       <c r="AA84" s="5">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>3.0820669721262663E-2</v>
       </c>
       <c r="AB84" s="5">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>2.1724142835685956E-2</v>
       </c>
       <c r="AC84" s="5">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>1.0985042418347546E-3</v>
       </c>
       <c r="AD84" s="5">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>1.1848306101475702E-2</v>
       </c>
       <c r="AE84" s="5">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>1.4470896730463971E-2</v>
       </c>
       <c r="AF84" s="5">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>8.8369953641589064E-3</v>
       </c>
       <c r="AG84" s="5">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>3.5976801585841625E-3</v>
       </c>
       <c r="AH84" s="5">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>6.6756058266615971E-3</v>
       </c>
       <c r="AI84" s="5">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>9.4106854785887973E-3</v>
       </c>
       <c r="AJ84" s="5">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>6.6331808285638788E-3</v>
       </c>
       <c r="AK84" s="5">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>3.1169594750941475E-3</v>
       </c>
       <c r="AL84" s="5">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>7.5653928020986516E-5</v>
       </c>
       <c r="AM84" s="5">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>3.3405412203851665E-3</v>
       </c>
       <c r="AN84" s="5">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>4.0799610180590308E-3</v>
       </c>
       <c r="AO84" s="5">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>2.4915246977497232E-3</v>
       </c>
       <c r="AP84" s="5">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>1.014338991969103E-3</v>
       </c>
       <c r="AQ84" s="5">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>3.0971504864816971E-4</v>
       </c>
       <c r="AR84" s="5">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>1.6306466376467404E-3</v>
       </c>
       <c r="AS84" s="5">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.2987430702279738E-3</v>
       </c>
       <c r="AT84" s="5">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>1.6202835062251824E-3</v>
       </c>
       <c r="AU84" s="5">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>7.6137801118272559E-4</v>
       </c>
       <c r="AV84" s="5">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>2.6833103914470063E-4</v>
       </c>
       <c r="AW84" s="5">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>3.6182513552884892E-6</v>
       </c>
       <c r="AX84" s="5">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>7.8486716086379068E-4</v>
       </c>
       <c r="AY84" s="5">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>9.5859539200947612E-4</v>
       </c>
       <c r="AZ84" s="5">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>5.8538894949464724E-4</v>
       </c>
       <c r="BA84" s="5">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>2.3832107202330404E-4</v>
       </c>
       <c r="BB84" s="5">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>7.2768199783282994E-5</v>
       </c>
       <c r="BC84" s="5">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>1.7775048944667389E-5</v>
       </c>
       <c r="BD84" s="5">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>3.3193097948863856E-4</v>
       </c>
       <c r="BE84" s="5">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>4.679272757675114E-4</v>
       </c>
       <c r="BF84" s="5">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>3.2982148238245277E-4</v>
       </c>
       <c r="BG84" s="5">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>1.5498449705677033E-4</v>
       </c>
       <c r="BH84" s="5">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>5.4620898601944708E-5</v>
       </c>
       <c r="BI84" s="5">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1.5399953521756927E-5</v>
       </c>
       <c r="BJ84" s="8">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>0.41282940575741084</v>
       </c>
       <c r="BK84" s="8">
         <f t="shared" si="108"/>
-        <v>1</v>
+        <v>0.26167375450031094</v>
       </c>
       <c r="BL84" s="8">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>0.30366220480094974</v>
       </c>
       <c r="BM84" s="8">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>0.48841307314657317</v>
       </c>
       <c r="BN84" s="8">
         <f t="shared" si="111"/>
-        <v>1</v>
+        <v>0.51066040251792022</v>
       </c>
     </row>
     <row r="85" spans="1:66" x14ac:dyDescent="0.25">
@@ -37600,7 +38152,7 @@
       </c>
       <c r="F85">
         <f>VLOOKUP(B85,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="G85">
         <f>VLOOKUP(C85,away!$B$2:$E$405,4,FALSE)</f>
@@ -37616,231 +38168,231 @@
       </c>
       <c r="J85">
         <f>VLOOKUP(B85,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K85" s="3">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1.1413652694610796</v>
       </c>
       <c r="L85" s="3">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>1.1889221556886189</v>
       </c>
       <c r="M85" s="5">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>9.7267785863432835E-2</v>
       </c>
       <c r="N85" s="5">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>0.11101807262189961</v>
       </c>
       <c r="O85" s="5">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.1156438256478115</v>
       </c>
       <c r="P85" s="5">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>0.13199184622202451</v>
       </c>
       <c r="Q85" s="5">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>6.3356086186572083E-2</v>
       </c>
       <c r="R85" s="5">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>6.8745753240637433E-2</v>
       </c>
       <c r="S85" s="5">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>4.4778050909782756E-2</v>
       </c>
       <c r="T85" s="5">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>7.5325454564933197E-2</v>
       </c>
       <c r="U85" s="5">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>7.846401517180504E-2</v>
       </c>
       <c r="V85" s="5">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>6.7515074290821287E-3</v>
       </c>
       <c r="W85" s="5">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>2.4104145460778732E-2</v>
       </c>
       <c r="X85" s="5">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2.8657952582261084E-2</v>
       </c>
       <c r="Y85" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1.7036037380862037E-2</v>
       </c>
       <c r="Z85" s="5">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>2.7244449712432176E-2</v>
       </c>
       <c r="AA85" s="5">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>3.1095868687348982E-2</v>
       </c>
       <c r="AB85" s="5">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>1.7745872271731213E-2</v>
       </c>
       <c r="AC85" s="5">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>5.7260988468310799E-4</v>
       </c>
       <c r="AD85" s="5">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>6.8779086197426949E-3</v>
       </c>
       <c r="AE85" s="5">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>8.1772979428138166E-3</v>
       </c>
       <c r="AF85" s="5">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>4.8610853489391564E-3</v>
       </c>
       <c r="AG85" s="5">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>1.9264840240157015E-3</v>
       </c>
       <c r="AH85" s="5">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>8.0978824706637569E-3</v>
       </c>
       <c r="AI85" s="5">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>9.2426418081932912E-3</v>
       </c>
       <c r="AJ85" s="5">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>5.2746151789703896E-3</v>
       </c>
       <c r="AK85" s="5">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>2.0067541916830118E-3</v>
       </c>
       <c r="AL85" s="5">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>3.1081137572277208E-5</v>
       </c>
       <c r="AM85" s="5">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>1.5700412050202598E-3</v>
       </c>
       <c r="AN85" s="5">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>1.8666567739926436E-3</v>
       </c>
       <c r="AO85" s="5">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1.1096547978330486E-3</v>
       </c>
       <c r="AP85" s="5">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>4.3976439143662897E-4</v>
       </c>
       <c r="AQ85" s="5">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>1.307114070654826E-4</v>
       </c>
       <c r="AR85" s="5">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>1.9255503767069255E-3</v>
       </c>
       <c r="AS85" s="5">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>2.1977563245709833E-3</v>
       </c>
       <c r="AT85" s="5">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>1.2542213698018764E-3</v>
       </c>
       <c r="AU85" s="5">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>4.7717490390258746E-4</v>
       </c>
       <c r="AV85" s="5">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>1.3615771569321038E-4</v>
       </c>
       <c r="AW85" s="5">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>1.1715814275075354E-6</v>
       </c>
       <c r="AX85" s="5">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>2.9866508383882487E-4</v>
       </c>
       <c r="AY85" s="5">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>3.5508953530657766E-4</v>
       </c>
       <c r="AZ85" s="5">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>2.1108690788958315E-4</v>
       </c>
       <c r="BA85" s="5">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>8.3655300521909385E-5</v>
       </c>
       <c r="BB85" s="5">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>2.4864910057821932E-5</v>
       </c>
       <c r="BC85" s="5">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>5.9124884933898514E-6</v>
       </c>
       <c r="BD85" s="5">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>3.8155491746023808E-4</v>
       </c>
       <c r="BE85" s="5">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>4.3549353118120467E-4</v>
       </c>
       <c r="BF85" s="5">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>2.4852859578259641E-4</v>
       </c>
       <c r="BG85" s="5">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>9.4553969231395583E-5</v>
       </c>
       <c r="BH85" s="5">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>2.6980154142601616E-5</v>
       </c>
       <c r="BI85" s="5">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>6.1588421806143872E-6</v>
       </c>
       <c r="BJ85" s="8">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>0.34743662753427412</v>
       </c>
       <c r="BK85" s="8">
         <f t="shared" si="108"/>
-        <v>1</v>
+        <v>0.2817479709818842</v>
       </c>
       <c r="BL85" s="8">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>0.34350135936949883</v>
       </c>
       <c r="BM85" s="8">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>0.41155311986183224</v>
       </c>
       <c r="BN85" s="8">
         <f t="shared" si="111"/>
-        <v>1</v>
+        <v>0.58802336978237801</v>
       </c>
     </row>
     <row r="86" spans="1:66" x14ac:dyDescent="0.25">
@@ -37862,7 +38414,7 @@
       </c>
       <c r="F86">
         <f>VLOOKUP(B86,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="G86">
         <f>VLOOKUP(C86,away!$B$2:$E$405,4,FALSE)</f>
@@ -37878,231 +38430,231 @@
       </c>
       <c r="J86">
         <f>VLOOKUP(B86,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="K86" s="3">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1.063772455089822</v>
       </c>
       <c r="L86" s="3">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>1.5393413173652644</v>
       </c>
       <c r="M86" s="5">
         <f t="shared" si="58"/>
-        <v>1</v>
+        <v>7.4042666881591335E-2</v>
       </c>
       <c r="N86" s="5">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>7.8764549530028261E-2</v>
       </c>
       <c r="O86" s="5">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>0.11397693637874626</v>
       </c>
       <c r="P86" s="5">
         <f t="shared" si="61"/>
-        <v>0</v>
+        <v>0.12124552543523533</v>
       </c>
       <c r="Q86" s="5">
         <f t="shared" si="62"/>
-        <v>0</v>
+        <v>4.1893779113801023E-2</v>
       </c>
       <c r="R86" s="5">
         <f t="shared" si="63"/>
-        <v>0</v>
+        <v>8.77247036972581E-2</v>
       </c>
       <c r="S86" s="5">
         <f t="shared" si="64"/>
-        <v>0</v>
+        <v>4.96351565158209E-2</v>
       </c>
       <c r="T86" s="5">
         <f t="shared" si="65"/>
-        <v>0</v>
+        <v>6.4488825130447874E-2</v>
       </c>
       <c r="U86" s="5">
         <f t="shared" si="66"/>
-        <v>0</v>
+        <v>9.3319123424059416E-2</v>
       </c>
       <c r="V86" s="5">
         <f t="shared" si="67"/>
-        <v>0</v>
+        <v>9.0308900188963166E-3</v>
       </c>
       <c r="W86" s="5">
         <f t="shared" si="68"/>
-        <v>0</v>
+        <v>1.4855149420292943E-2</v>
       </c>
       <c r="X86" s="5">
         <f t="shared" si="69"/>
-        <v>0</v>
+        <v>2.2867145278291586E-2</v>
       </c>
       <c r="Y86" s="5">
         <f t="shared" si="70"/>
-        <v>0</v>
+        <v>1.7600170768534127E-2</v>
       </c>
       <c r="Z86" s="5">
         <f t="shared" si="71"/>
-        <v>0</v>
+        <v>4.5012753651604932E-2</v>
       </c>
       <c r="AA86" s="5">
         <f t="shared" si="72"/>
-        <v>0</v>
+        <v>4.7883327462321122E-2</v>
       </c>
       <c r="AB86" s="5">
         <f t="shared" si="73"/>
-        <v>0</v>
+        <v>2.5468482406231618E-2</v>
       </c>
       <c r="AC86" s="5">
         <f t="shared" si="74"/>
-        <v>0</v>
+        <v>9.2426016951141238E-4</v>
       </c>
       <c r="AD86" s="5">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>3.950624692387791E-3</v>
       </c>
       <c r="AE86" s="5">
         <f t="shared" si="76"/>
-        <v>0</v>
+        <v>6.0813598183959662E-3</v>
       </c>
       <c r="AF86" s="5">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>4.6806442171109155E-3</v>
       </c>
       <c r="AG86" s="5">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>2.4017030117618752E-3</v>
       </c>
       <c r="AH86" s="5">
         <f t="shared" si="79"/>
-        <v>0</v>
+        <v>1.732249787607492E-2</v>
       </c>
       <c r="AI86" s="5">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>1.8427196093920441E-2</v>
       </c>
       <c r="AJ86" s="5">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>9.8011718146256629E-3</v>
       </c>
       <c r="AK86" s="5">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>3.4754055346671695E-3</v>
       </c>
       <c r="AL86" s="5">
         <f t="shared" si="83"/>
-        <v>0</v>
+        <v>6.0539369858452307E-5</v>
       </c>
       <c r="AM86" s="5">
         <f t="shared" si="84"/>
-        <v>0</v>
+        <v>8.4051314563196686E-4</v>
       </c>
       <c r="AN86" s="5">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v>1.2938366128599345E-3</v>
       </c>
       <c r="AO86" s="5">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>9.9582807804761138E-4</v>
       </c>
       <c r="AP86" s="5">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>5.1097310184371008E-4</v>
       </c>
       <c r="AQ86" s="5">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>1.9664050193257806E-4</v>
       </c>
       <c r="AR86" s="5">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>5.3330473401228314E-3</v>
       </c>
       <c r="AS86" s="5">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>5.6731488621127087E-3</v>
       </c>
       <c r="AT86" s="5">
         <f t="shared" si="91"/>
-        <v>0</v>
+        <v>3.0174697465698329E-3</v>
       </c>
       <c r="AU86" s="5">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>1.0699670668226182E-3</v>
       </c>
       <c r="AV86" s="5">
         <f t="shared" si="93"/>
-        <v>0</v>
+        <v>2.8455037338478799E-4</v>
       </c>
       <c r="AW86" s="5">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v>2.7537154578665643E-6</v>
       </c>
       <c r="AX86" s="5">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>1.490191220773644E-4</v>
       </c>
       <c r="AY86" s="5">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>2.2939129169118527E-4</v>
       </c>
       <c r="AZ86" s="5">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>1.7655574657201439E-4</v>
       </c>
       <c r="BA86" s="5">
         <f t="shared" si="98"/>
-        <v>0</v>
+        <v>9.0593185172190832E-5</v>
       </c>
       <c r="BB86" s="5">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>3.4863458251818905E-5</v>
       </c>
       <c r="BC86" s="5">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>1.0733352350652761E-5</v>
       </c>
       <c r="BD86" s="5">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>1.3682300196860007E-3</v>
       </c>
       <c r="BE86" s="5">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>1.455485407168972E-3</v>
       </c>
       <c r="BF86" s="5">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>7.7415264246577335E-4</v>
       </c>
       <c r="BG86" s="5">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>2.7450741903002965E-4</v>
       </c>
       <c r="BH86" s="5">
         <f t="shared" si="105"/>
-        <v>0</v>
+        <v>7.300335777048627E-5</v>
       </c>
       <c r="BI86" s="5">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v>1.5531792225062167E-5</v>
       </c>
       <c r="BJ86" s="8">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>0.26211289857748338</v>
       </c>
       <c r="BK86" s="8">
         <f t="shared" si="108"/>
-        <v>1</v>
+        <v>0.25516842968260495</v>
       </c>
       <c r="BL86" s="8">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>0.4367379387152639</v>
       </c>
       <c r="BM86" s="8">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>0.48115722201406358</v>
       </c>
       <c r="BN86" s="8">
         <f t="shared" si="111"/>
-        <v>1</v>
+        <v>0.51764816103666034</v>
       </c>
     </row>
     <row r="87" spans="1:66" x14ac:dyDescent="0.25">
@@ -38386,7 +38938,7 @@
       </c>
       <c r="F88">
         <f>VLOOKUP(B88,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="G88">
         <f>VLOOKUP(C88,away!$B$2:$E$405,4,FALSE)</f>
@@ -38402,231 +38954,231 @@
       </c>
       <c r="J88">
         <f>VLOOKUP(B88,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="K88" s="3">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1.5195777777777788</v>
       </c>
       <c r="L88" s="3">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>2.6026180555555576</v>
       </c>
       <c r="M88" s="5">
         <f t="shared" ref="M88:M151" si="114">_xlfn.POISSON.DIST(0,K88,FALSE) * _xlfn.POISSON.DIST(0,L88,FALSE)</f>
-        <v>1</v>
+        <v>1.6208883329962908E-2</v>
       </c>
       <c r="N88" s="5">
         <f t="shared" ref="N88:N151" si="115">_xlfn.POISSON.DIST(1,K88,FALSE) * _xlfn.POISSON.DIST(0,L88,FALSE)</f>
-        <v>0</v>
+        <v>2.4630658910804317E-2</v>
       </c>
       <c r="O88" s="5">
         <f t="shared" ref="O88:O151" si="116">_xlfn.POISSON.DIST(0,K88,FALSE) * _xlfn.POISSON.DIST(1,L88,FALSE)</f>
-        <v>0</v>
+        <v>4.218553241495495E-2</v>
       </c>
       <c r="P88" s="5">
         <f t="shared" ref="P88:P151" si="117">_xlfn.POISSON.DIST(1,K88,FALSE) * _xlfn.POISSON.DIST(1,L88,FALSE)</f>
-        <v>0</v>
+        <v>6.4104197601489707E-2</v>
       </c>
       <c r="Q88" s="5">
         <f t="shared" ref="Q88:Q151" si="118">_xlfn.POISSON.DIST(2,K88,FALSE) * _xlfn.POISSON.DIST(0,L88,FALSE)</f>
-        <v>0</v>
+        <v>1.871410096644124E-2</v>
       </c>
       <c r="R88" s="5">
         <f t="shared" ref="R88:R151" si="119">_xlfn.POISSON.DIST(0,K88,FALSE) * _xlfn.POISSON.DIST(2,L88,FALSE)</f>
-        <v>0</v>
+        <v>5.4896414173193006E-2</v>
       </c>
       <c r="S88" s="5">
         <f t="shared" ref="S88:S151" si="120">_xlfn.POISSON.DIST(2,K88,FALSE) * _xlfn.POISSON.DIST(2,L88,FALSE)</f>
-        <v>0</v>
+        <v>6.3381111247412553E-2</v>
       </c>
       <c r="T88" s="5">
         <f t="shared" ref="T88:T151" si="121">_xlfn.POISSON.DIST(2,K88,FALSE) * _xlfn.POISSON.DIST(1,L88,FALSE)</f>
-        <v>0</v>
+        <v>4.8705657068749679E-2</v>
       </c>
       <c r="U88" s="5">
         <f t="shared" ref="U88:U151" si="122">_xlfn.POISSON.DIST(1,K88,FALSE) * _xlfn.POISSON.DIST(2,L88,FALSE)</f>
-        <v>0</v>
+        <v>8.3419371057269195E-2</v>
       </c>
       <c r="V88" s="5">
         <f t="shared" ref="V88:V151" si="123">_xlfn.POISSON.DIST(3,K88,FALSE) * _xlfn.POISSON.DIST(3,L88,FALSE)</f>
-        <v>0</v>
+        <v>2.7851636091532673E-2</v>
       </c>
       <c r="W88" s="5">
         <f t="shared" ref="W88:W151" si="124">_xlfn.POISSON.DIST(3,K88,FALSE) * _xlfn.POISSON.DIST(0,L88,FALSE)</f>
-        <v>0</v>
+        <v>9.479177319897919E-3</v>
       </c>
       <c r="X88" s="5">
         <f t="shared" ref="X88:X151" si="125">_xlfn.POISSON.DIST(3,K88,FALSE) * _xlfn.POISSON.DIST(1,L88,FALSE)</f>
-        <v>0</v>
+        <v>2.4670678044579061E-2</v>
       </c>
       <c r="Y88" s="5">
         <f t="shared" ref="Y88:Y151" si="126">_xlfn.POISSON.DIST(3,K88,FALSE) * _xlfn.POISSON.DIST(2,L88,FALSE)</f>
-        <v>0</v>
+        <v>3.2104176060809772E-2</v>
       </c>
       <c r="Z88" s="5">
         <f t="shared" ref="Z88:Z151" si="127">_xlfn.POISSON.DIST(0,K88,FALSE) * _xlfn.POISSON.DIST(3,L88,FALSE)</f>
-        <v>0</v>
+        <v>4.762479957080272E-2</v>
       </c>
       <c r="AA88" s="5">
         <f t="shared" ref="AA88:AA151" si="128">_xlfn.POISSON.DIST(1,K88,FALSE) * _xlfn.POISSON.DIST(3,L88,FALSE)</f>
-        <v>0</v>
+        <v>7.2369587098912502E-2</v>
       </c>
       <c r="AB88" s="5">
         <f t="shared" ref="AB88:AB151" si="129">_xlfn.POISSON.DIST(2,K88,FALSE) * _xlfn.POISSON.DIST(3,L88,FALSE)</f>
-        <v>0</v>
+        <v>5.4985608171230452E-2</v>
       </c>
       <c r="AC88" s="5">
         <f t="shared" ref="AC88:AC151" si="130">_xlfn.POISSON.DIST(4,K88,FALSE) * _xlfn.POISSON.DIST(4,L88,FALSE)</f>
-        <v>0</v>
+        <v>6.884368386115094E-3</v>
       </c>
       <c r="AD88" s="5">
         <f t="shared" ref="AD88:AD151" si="131">_xlfn.POISSON.DIST(4,K88,FALSE) * _xlfn.POISSON.DIST(0,L88,FALSE)</f>
-        <v>0</v>
+        <v>3.6010868017330006E-3</v>
       </c>
       <c r="AE88" s="5">
         <f t="shared" ref="AE88:AE151" si="132">_xlfn.POISSON.DIST(4,K88,FALSE) * _xlfn.POISSON.DIST(1,L88,FALSE)</f>
-        <v>0</v>
+        <v>9.3722535298131227E-3</v>
       </c>
       <c r="AF88" s="5">
         <f t="shared" ref="AF88:AF151" si="133">_xlfn.POISSON.DIST(4,K88,FALSE) * _xlfn.POISSON.DIST(2,L88,FALSE)</f>
-        <v>0</v>
+        <v>1.2196198128967972E-2</v>
       </c>
       <c r="AG88" s="5">
         <f t="shared" ref="AG88:AG151" si="134">_xlfn.POISSON.DIST(4,K88,FALSE) * _xlfn.POISSON.DIST(3,L88,FALSE)</f>
-        <v>0</v>
+        <v>1.0580681819861652E-2</v>
       </c>
       <c r="AH88" s="5">
         <f t="shared" ref="AH88:AH151" si="135">_xlfn.POISSON.DIST(0,K88,FALSE) * _xlfn.POISSON.DIST(4,L88,FALSE)</f>
-        <v>0</v>
+        <v>3.0987290813796437E-2</v>
       </c>
       <c r="AI88" s="5">
         <f t="shared" ref="AI88:AI151" si="136">_xlfn.POISSON.DIST(1,K88,FALSE) * _xlfn.POISSON.DIST(4,L88,FALSE)</f>
-        <v>0</v>
+        <v>4.7087598514182566E-2</v>
       </c>
       <c r="AJ88" s="5">
         <f t="shared" ref="AJ88:AJ151" si="137">_xlfn.POISSON.DIST(2,K88,FALSE) * _xlfn.POISSON.DIST(4,L88,FALSE)</f>
-        <v>0</v>
+        <v>3.5776634155536897E-2</v>
       </c>
       <c r="AK88" s="5">
         <f t="shared" ref="AK88:AK151" si="138">_xlfn.POISSON.DIST(3,K88,FALSE) * _xlfn.POISSON.DIST(4,L88,FALSE)</f>
-        <v>0</v>
+        <v>1.8121792742146443E-2</v>
       </c>
       <c r="AL88" s="5">
         <f t="shared" ref="AL88:AL151" si="139">_xlfn.POISSON.DIST(5,K88,FALSE) * _xlfn.POISSON.DIST(5,L88,FALSE)</f>
-        <v>0</v>
+        <v>1.0890741882734743E-3</v>
       </c>
       <c r="AM88" s="5">
         <f t="shared" ref="AM88:AM151" si="140">_xlfn.POISSON.DIST(5,K88,FALSE) * _xlfn.POISSON.DIST(0,L88,FALSE)</f>
-        <v>0</v>
+        <v>1.0944262959524632E-3</v>
       </c>
       <c r="AN88" s="5">
         <f t="shared" ref="AN88:AN151" si="141">_xlfn.POISSON.DIST(5,K88,FALSE) * _xlfn.POISSON.DIST(1,L88,FALSE)</f>
-        <v>0</v>
+        <v>2.848373638320671E-3</v>
       </c>
       <c r="AO88" s="5">
         <f t="shared" ref="AO88:AO151" si="142">_xlfn.POISSON.DIST(5,K88,FALSE) * _xlfn.POISSON.DIST(2,L88,FALSE)</f>
-        <v>0</v>
+        <v>3.7066143300309275E-3</v>
       </c>
       <c r="AP88" s="5">
         <f t="shared" ref="AP88:AP151" si="143">_xlfn.POISSON.DIST(5,K88,FALSE) * _xlfn.POISSON.DIST(3,L88,FALSE)</f>
-        <v>0</v>
+        <v>3.2156337934398193E-3</v>
       </c>
       <c r="AQ88" s="5">
         <f t="shared" ref="AQ88:AQ151" si="144">_xlfn.POISSON.DIST(5,K88,FALSE) * _xlfn.POISSON.DIST(4,L88,FALSE)</f>
-        <v>0</v>
+        <v>2.0922666427152714E-3</v>
       </c>
       <c r="AR88" s="5">
         <f t="shared" ref="AR88:AR151" si="145">_xlfn.POISSON.DIST(0,K88,FALSE) * _xlfn.POISSON.DIST(5,L88,FALSE)</f>
-        <v>0</v>
+        <v>1.6129616512947482E-2</v>
       </c>
       <c r="AS88" s="5">
         <f t="shared" ref="AS88:AS151" si="146">_xlfn.POISSON.DIST(1,K88,FALSE) * _xlfn.POISSON.DIST(5,L88,FALSE)</f>
-        <v>0</v>
+        <v>2.4510206817152502E-2</v>
       </c>
       <c r="AT88" s="5">
         <f t="shared" ref="AT88:AT151" si="147">_xlfn.POISSON.DIST(2,K88,FALSE) * _xlfn.POISSON.DIST(5,L88,FALSE)</f>
-        <v>0</v>
+        <v>1.8622582804041186E-2</v>
       </c>
       <c r="AU88" s="5">
         <f t="shared" ref="AU88:AU151" si="148">_xlfn.POISSON.DIST(3,K88,FALSE) * _xlfn.POISSON.DIST(5,L88,FALSE)</f>
-        <v>0</v>
+        <v>9.4328209979491918E-3</v>
       </c>
       <c r="AV88" s="5">
         <f t="shared" ref="AV88:AV151" si="149">_xlfn.POISSON.DIST(4,K88,FALSE) * _xlfn.POISSON.DIST(5,L88,FALSE)</f>
-        <v>0</v>
+        <v>3.5834762925598014E-3</v>
       </c>
       <c r="AW88" s="5">
         <f t="shared" ref="AW88:AW151" si="150">_xlfn.POISSON.DIST(6,K88,FALSE) * _xlfn.POISSON.DIST(6,L88,FALSE)</f>
-        <v>0</v>
+        <v>1.1964328713829715E-4</v>
       </c>
       <c r="AX88" s="5">
         <f t="shared" ref="AX88:AX151" si="151">_xlfn.POISSON.DIST(6,K88,FALSE) * _xlfn.POISSON.DIST(0,L88,FALSE)</f>
-        <v>0</v>
+        <v>2.7717764645750139E-4</v>
       </c>
       <c r="AY88" s="5">
         <f t="shared" ref="AY88:AY151" si="152">_xlfn.POISSON.DIST(6,K88,FALSE) * _xlfn.POISSON.DIST(1,L88,FALSE)</f>
-        <v>0</v>
+        <v>7.21387547266688E-4</v>
       </c>
       <c r="AZ88" s="5">
         <f t="shared" ref="AZ88:AZ151" si="153">_xlfn.POISSON.DIST(6,K88,FALSE) * _xlfn.POISSON.DIST(2,L88,FALSE)</f>
-        <v>0</v>
+        <v>9.3874812778461036E-4</v>
       </c>
       <c r="BA88" s="5">
         <f t="shared" ref="BA88:BA151" si="154">_xlfn.POISSON.DIST(6,K88,FALSE) * _xlfn.POISSON.DIST(3,L88,FALSE)</f>
-        <v>0</v>
+        <v>8.1440094233040095E-4</v>
       </c>
       <c r="BB88" s="5">
         <f t="shared" ref="BB88:BB151" si="155">_xlfn.POISSON.DIST(6,K88,FALSE) * _xlfn.POISSON.DIST(4,L88,FALSE)</f>
-        <v>0</v>
+        <v>5.2989364924264058E-4</v>
       </c>
       <c r="BC88" s="5">
         <f t="shared" ref="BC88:BC151" si="156">_xlfn.POISSON.DIST(6,K88,FALSE) * _xlfn.POISSON.DIST(5,L88,FALSE)</f>
-        <v>0</v>
+        <v>2.7582215580862376E-4</v>
       </c>
       <c r="BD88" s="5">
         <f t="shared" ref="BD88:BD151" si="157">_xlfn.POISSON.DIST(0,K88,FALSE) * _xlfn.POISSON.DIST(6,L88,FALSE)</f>
-        <v>0</v>
+        <v>6.9965385276307031E-3</v>
       </c>
       <c r="BE88" s="5">
         <f t="shared" ref="BE88:BE151" si="158">_xlfn.POISSON.DIST(1,K88,FALSE) * _xlfn.POISSON.DIST(6,L88,FALSE)</f>
-        <v>0</v>
+        <v>1.0631784467953676E-2</v>
       </c>
       <c r="BF88" s="5">
         <f t="shared" ref="BF88:BF151" si="159">_xlfn.POISSON.DIST(2,K88,FALSE) * _xlfn.POISSON.DIST(6,L88,FALSE)</f>
-        <v>0</v>
+        <v>8.0779117078126784E-3</v>
       </c>
       <c r="BG88" s="5">
         <f t="shared" ref="BG88:BG151" si="160">_xlfn.POISSON.DIST(3,K88,FALSE) * _xlfn.POISSON.DIST(6,L88,FALSE)</f>
-        <v>0</v>
+        <v>4.0916717073476959E-3</v>
       </c>
       <c r="BH88" s="5">
         <f t="shared" ref="BH88:BH151" si="161">_xlfn.POISSON.DIST(4,K88,FALSE) * _xlfn.POISSON.DIST(6,L88,FALSE)</f>
-        <v>0</v>
+        <v>1.5544033501119056E-3</v>
       </c>
       <c r="BI88" s="5">
         <f t="shared" ref="BI88:BI151" si="162">_xlfn.POISSON.DIST(5,K88,FALSE) * _xlfn.POISSON.DIST(6,L88,FALSE)</f>
-        <v>0</v>
+        <v>4.7240735770667639E-4</v>
       </c>
       <c r="BJ88" s="8">
         <f t="shared" ref="BJ88:BJ151" si="163">SUM(N88,Q88,T88,W88,X88,Y88,AD88,AE88,AF88,AG88,AM88,AN88,AO88,AP88,AQ88,AX88,AY88,AZ88,BA88,BB88,BC88)</f>
-        <v>0</v>
+        <v>0.21056941342100732</v>
       </c>
       <c r="BK88" s="8">
         <f t="shared" ref="BK88:BK151" si="164">SUM(M88,P88,S88,V88,AC88,AL88,AY88)</f>
-        <v>1</v>
+        <v>0.18024065839205311</v>
       </c>
       <c r="BL88" s="8">
         <f t="shared" ref="BL88:BL151" si="165">SUM(O88,R88,U88,AA88,AB88,AH88,AI88,AJ88,AK88,AR88,AS88,AT88,AU88,AV88,BD88,BE88,BF88,BG88,BH88,BI88)</f>
-        <v>0</v>
+        <v>0.5439332496844359</v>
       </c>
       <c r="BM88" s="8">
         <f t="shared" ref="BM88:BM151" si="166">SUM(S88:BI88)</f>
-        <v>0</v>
+        <v>0.76102658941132462</v>
       </c>
       <c r="BN88" s="8">
         <f t="shared" ref="BN88:BN151" si="167">SUM(M88:R88)</f>
-        <v>1</v>
+        <v>0.22073978739684613</v>
       </c>
     </row>
     <row r="89" spans="1:66" x14ac:dyDescent="0.25">
@@ -39434,7 +39986,7 @@
       </c>
       <c r="F92">
         <f>VLOOKUP(B92,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="G92">
         <f>VLOOKUP(C92,away!$B$2:$E$405,4,FALSE)</f>
@@ -39450,231 +40002,231 @@
       </c>
       <c r="J92">
         <f>VLOOKUP(B92,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="K92" s="3">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1.8535086206896558</v>
       </c>
       <c r="L92" s="3">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>1.5560999999999987</v>
       </c>
       <c r="M92" s="5">
         <f t="shared" si="114"/>
-        <v>1</v>
+        <v>3.305413454902182E-2</v>
       </c>
       <c r="N92" s="5">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>6.1266123336047723E-2</v>
       </c>
       <c r="O92" s="5">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>5.1435538771732799E-2</v>
       </c>
       <c r="P92" s="5">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>9.5336214523223758E-2</v>
       </c>
       <c r="Q92" s="5">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>5.6778643879800098E-2</v>
       </c>
       <c r="R92" s="5">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>4.0019420941346681E-2</v>
       </c>
       <c r="S92" s="5">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>6.8743244405162648E-2</v>
       </c>
       <c r="T92" s="5">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>8.8353247741356833E-2</v>
       </c>
       <c r="U92" s="5">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>7.4176341709794216E-2</v>
       </c>
       <c r="V92" s="5">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>2.2030260309000141E-2</v>
       </c>
       <c r="W92" s="5">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>3.5079901967425817E-2</v>
       </c>
       <c r="X92" s="5">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>5.4587835451511253E-2</v>
       </c>
       <c r="Y92" s="5">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>4.2472065373048311E-2</v>
       </c>
       <c r="Z92" s="5">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>2.0758073642276505E-2</v>
       </c>
       <c r="AA92" s="5">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>3.8475268444870224E-2</v>
       </c>
       <c r="AB92" s="5">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>3.5657120872957838E-2</v>
       </c>
       <c r="AC92" s="5">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>3.9712914350140145E-3</v>
       </c>
       <c r="AD92" s="5">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>1.6255225177392935E-2</v>
       </c>
       <c r="AE92" s="5">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>2.5294755898541119E-2</v>
       </c>
       <c r="AF92" s="5">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>1.9680584826859908E-2</v>
       </c>
       <c r="AG92" s="5">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1.0208319349692225E-2</v>
       </c>
       <c r="AH92" s="5">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>8.0754095986866111E-3</v>
       </c>
       <c r="AI92" s="5">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>1.4967841306765628E-2</v>
       </c>
       <c r="AJ92" s="5">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1.3871511447602411E-2</v>
       </c>
       <c r="AK92" s="5">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>8.5703220167087715E-3</v>
       </c>
       <c r="AL92" s="5">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>4.5816706121436359E-4</v>
       </c>
       <c r="AM92" s="5">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>6.0258399995098706E-3</v>
       </c>
       <c r="AN92" s="5">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>9.3768096232373001E-3</v>
       </c>
       <c r="AO92" s="5">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>7.2956267273597769E-3</v>
       </c>
       <c r="AP92" s="5">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>3.7842415834815134E-3</v>
       </c>
       <c r="AQ92" s="5">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>1.4721645820138945E-3</v>
       </c>
       <c r="AR92" s="5">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>2.5132289753032433E-3</v>
       </c>
       <c r="AS92" s="5">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>4.6582915714915921E-3</v>
       </c>
       <c r="AT92" s="5">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>4.3170917927228157E-3</v>
       </c>
       <c r="AU92" s="5">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>2.6672556180401003E-3</v>
       </c>
       <c r="AV92" s="5">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>1.2359453204050599E-3</v>
       </c>
       <c r="AW92" s="5">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>3.6707387434582591E-5</v>
       </c>
       <c r="AX92" s="5">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1.8614910643313482E-3</v>
       </c>
       <c r="AY92" s="5">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>2.8966662452060078E-3</v>
       </c>
       <c r="AZ92" s="5">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>2.2537511720825336E-3</v>
       </c>
       <c r="BA92" s="5">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1.169020732959209E-3</v>
       </c>
       <c r="BB92" s="5">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>4.5477829063945594E-4</v>
       </c>
       <c r="BC92" s="5">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>1.4153609961281127E-4</v>
       </c>
       <c r="BD92" s="5">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>6.5180593474489595E-4</v>
       </c>
       <c r="BE92" s="5">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1.2081279190663439E-3</v>
       </c>
       <c r="BF92" s="5">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1.1196377564426619E-3</v>
       </c>
       <c r="BG92" s="5">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>6.917527445386997E-4</v>
       </c>
       <c r="BH92" s="5">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>3.2054241884705214E-4</v>
       </c>
       <c r="BI92" s="5">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1.1882562732594515E-4</v>
       </c>
       <c r="BJ92" s="8">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.44670862912211001</v>
       </c>
       <c r="BK92" s="8">
         <f t="shared" si="164"/>
-        <v>1</v>
+        <v>0.22648997852784275</v>
       </c>
       <c r="BL92" s="8">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.30475128078939356</v>
       </c>
       <c r="BM92" s="8">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.65795792722267832</v>
       </c>
       <c r="BN92" s="8">
         <f t="shared" si="167"/>
-        <v>1</v>
+        <v>0.33789007600117288</v>
       </c>
     </row>
     <row r="93" spans="1:66" x14ac:dyDescent="0.25">
@@ -39700,7 +40252,7 @@
       </c>
       <c r="G93">
         <f>VLOOKUP(C93,away!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="H93">
         <f>VLOOKUP(A93,away!$A$2:$E$405,3,FALSE)</f>
@@ -39708,7 +40260,7 @@
       </c>
       <c r="I93">
         <f>VLOOKUP(C93,away!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="J93">
         <f>VLOOKUP(B93,home!$B$2:$E$405,4,FALSE)</f>
@@ -39716,227 +40268,227 @@
       </c>
       <c r="K93" s="3">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>0.86831034482758651</v>
       </c>
       <c r="L93" s="3">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>0.58577327586206851</v>
       </c>
       <c r="M93" s="5">
         <f t="shared" si="114"/>
-        <v>1</v>
+        <v>0.23361434519469818</v>
       </c>
       <c r="N93" s="5">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>0.20284975263267918</v>
       </c>
       <c r="O93" s="5">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>0.13684504027307043</v>
       </c>
       <c r="P93" s="5">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>0.11882396410745473</v>
       </c>
       <c r="Q93" s="5">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>8.8068269328336155E-2</v>
       </c>
       <c r="R93" s="5">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>4.0080083763116579E-2</v>
       </c>
       <c r="S93" s="5">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>1.5109447190028684E-2</v>
       </c>
       <c r="T93" s="5">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>5.1588038623962391E-2</v>
       </c>
       <c r="U93" s="5">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>3.4801951353070307E-2</v>
       </c>
       <c r="V93" s="5">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>8.5390704215491193E-4</v>
       </c>
       <c r="W93" s="5">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>2.5490196436285441E-2</v>
       </c>
       <c r="X93" s="5">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1.4931475868850547E-2</v>
       </c>
       <c r="Y93" s="5">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>4.3732297665760051E-3</v>
       </c>
       <c r="Z93" s="5">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>7.8259473209156341E-3</v>
       </c>
       <c r="AA93" s="5">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>6.7953510168267802E-3</v>
       </c>
       <c r="AB93" s="5">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>2.9502367923226764E-3</v>
       </c>
       <c r="AC93" s="5">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>2.7145331027177432E-5</v>
       </c>
       <c r="AD93" s="5">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>5.533350314328481E-3</v>
       </c>
       <c r="AE93" s="5">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>3.2412887401166005E-3</v>
       </c>
       <c r="AF93" s="5">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>9.4933016165646899E-4</v>
       </c>
       <c r="AG93" s="5">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1.8536407955605899E-4</v>
       </c>
       <c r="AH93" s="5">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1.146057699724182E-3</v>
       </c>
       <c r="AI93" s="5">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>9.9513375643981512E-4</v>
       </c>
       <c r="AJ93" s="5">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>4.3204246760191367E-4</v>
       </c>
       <c r="AK93" s="5">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>1.2504898134119301E-4</v>
       </c>
       <c r="AL93" s="5">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>5.5228044099263005E-7</v>
       </c>
       <c r="AM93" s="5">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>9.609330638972798E-4</v>
       </c>
       <c r="AN93" s="5">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>5.628889087232839E-4</v>
       </c>
       <c r="AO93" s="5">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1.6486264000463145E-4</v>
       </c>
       <c r="AP93" s="5">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>3.219070956759396E-5</v>
       </c>
       <c r="AQ93" s="5">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>4.7141143489334848E-6</v>
       </c>
       <c r="AR93" s="5">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>1.3426599461887622E-4</v>
       </c>
       <c r="AS93" s="5">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>1.1658455208613529E-4</v>
       </c>
       <c r="AT93" s="5">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>5.0615786311740928E-5</v>
       </c>
       <c r="AU93" s="5">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>1.4650070288689068E-5</v>
       </c>
       <c r="AV93" s="5">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>3.1802018960299953E-6</v>
       </c>
       <c r="AW93" s="5">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>7.8030015240936728E-9</v>
       </c>
       <c r="AX93" s="5">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1.3906468667814601E-4</v>
       </c>
       <c r="AY93" s="5">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>8.1460377072189739E-5</v>
       </c>
       <c r="AZ93" s="5">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>2.3858655965267958E-5</v>
       </c>
       <c r="BA93" s="5">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>4.6585876874803656E-6</v>
       </c>
       <c r="BB93" s="5">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>6.8221904264651775E-7</v>
       </c>
       <c r="BC93" s="5">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>7.9925136693307002E-8</v>
       </c>
       <c r="BD93" s="5">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1.3108238584129658E-5</v>
       </c>
       <c r="BE93" s="5">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1.1382019165067898E-5</v>
       </c>
       <c r="BF93" s="5">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>4.941562493027153E-6</v>
       </c>
       <c r="BG93" s="5">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1.4302699441024917E-6</v>
       </c>
       <c r="BH93" s="5">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>3.1047954709004184E-7</v>
       </c>
       <c r="BI93" s="5">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>5.3918520519133431E-8</v>
       </c>
       <c r="BJ93" s="8">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.39918568984047154</v>
       </c>
       <c r="BK93" s="8">
         <f t="shared" si="164"/>
-        <v>1</v>
+        <v>0.36851082152287684</v>
       </c>
       <c r="BL93" s="8">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.22452146919696928</v>
       </c>
       <c r="BM93" s="8">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.17968102000780722</v>
       </c>
       <c r="BN93" s="8">
         <f t="shared" si="167"/>
-        <v>1</v>
+        <v>0.82028145529935526</v>
       </c>
     </row>
     <row r="94" spans="1:66" x14ac:dyDescent="0.25">
@@ -43102,7 +43654,7 @@
       </c>
       <c r="F106">
         <f>VLOOKUP(B106,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="G106">
         <f>VLOOKUP(C106,away!$B$2:$E$405,4,FALSE)</f>
@@ -43118,231 +43670,231 @@
       </c>
       <c r="J106">
         <f>VLOOKUP(B106,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="K106" s="3">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1.7201700000000013</v>
       </c>
       <c r="L106" s="3">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>0.48934666666666704</v>
       </c>
       <c r="M106" s="5">
         <f t="shared" si="114"/>
-        <v>1</v>
+        <v>0.10975368331133692</v>
       </c>
       <c r="N106" s="5">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>0.18879499342166256</v>
       </c>
       <c r="O106" s="5">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>5.3707599082791713E-2</v>
       </c>
       <c r="P106" s="5">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>9.2386200714245872E-2</v>
       </c>
       <c r="Q106" s="5">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>0.1623797419170708</v>
       </c>
       <c r="R106" s="5">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>1.3140817292916935E-2</v>
       </c>
       <c r="S106" s="5">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>1.9441739504544021E-2</v>
       </c>
       <c r="T106" s="5">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>7.9459985441312248E-2</v>
       </c>
       <c r="U106" s="5">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>2.2604439682756938E-2</v>
       </c>
       <c r="V106" s="5">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>1.8183631179180017E-3</v>
       </c>
       <c r="W106" s="5">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>9.3106920217829292E-2</v>
       </c>
       <c r="X106" s="5">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>4.5561561052194062E-2</v>
       </c>
       <c r="Y106" s="5">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>1.1147699014510504E-2</v>
       </c>
       <c r="Z106" s="5">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>2.1434717131881996E-3</v>
       </c>
       <c r="AA106" s="5">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>3.6871357368749476E-3</v>
       </c>
       <c r="AB106" s="5">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>3.1712501402500924E-3</v>
       </c>
       <c r="AC106" s="5">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>9.5664021763861069E-5</v>
       </c>
       <c r="AD106" s="5">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>4.0039932737775875E-2</v>
       </c>
       <c r="AE106" s="5">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1.9593407618788177E-2</v>
       </c>
       <c r="AF106" s="5">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>4.793984353447636E-3</v>
       </c>
       <c r="AG106" s="5">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>7.8197342113725272E-4</v>
       </c>
       <c r="AH106" s="5">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>2.6222518448573381E-4</v>
       </c>
       <c r="AI106" s="5">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>4.5107189559682499E-4</v>
       </c>
       <c r="AJ106" s="5">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>3.8796017132439561E-4</v>
       </c>
       <c r="AK106" s="5">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>2.2245248263569537E-4</v>
       </c>
       <c r="AL106" s="5">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>3.2210437952181727E-6</v>
       </c>
       <c r="AM106" s="5">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>1.3775098219507986E-2</v>
       </c>
       <c r="AN106" s="5">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>6.7407983967221717E-3</v>
       </c>
       <c r="AO106" s="5">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1.6492936130540041E-3</v>
       </c>
       <c r="AP106" s="5">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>2.6902544396753363E-4</v>
       </c>
       <c r="AQ106" s="5">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>3.2911676063508185E-5</v>
       </c>
       <c r="AR106" s="5">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>2.566380398882913E-5</v>
       </c>
       <c r="AS106" s="5">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>4.4146105707464233E-5</v>
       </c>
       <c r="AT106" s="5">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>3.7969403327404408E-5</v>
       </c>
       <c r="AU106" s="5">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>2.1771276173900432E-5</v>
       </c>
       <c r="AV106" s="5">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>9.3625740340145812E-6</v>
       </c>
       <c r="AW106" s="5">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>7.53151130979615E-8</v>
       </c>
       <c r="AX106" s="5">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>3.9492517840418496E-3</v>
       </c>
       <c r="AY106" s="5">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1.9325531963482665E-3</v>
       </c>
       <c r="AZ106" s="5">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>4.7284423239451855E-4</v>
       </c>
       <c r="BA106" s="5">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>7.7128249658272189E-5</v>
       </c>
       <c r="BB106" s="5">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>9.4356129690274954E-6</v>
       </c>
       <c r="BC106" s="5">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>9.2345715087007565E-7</v>
       </c>
       <c r="BD106" s="5">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>2.0930828226533746E-6</v>
       </c>
       <c r="BE106" s="5">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>3.6004582790436578E-6</v>
       </c>
       <c r="BF106" s="5">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>3.0967001589312677E-6</v>
       </c>
       <c r="BG106" s="5">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1.7756169041296008E-6</v>
       </c>
       <c r="BH106" s="5">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>7.6359073249415429E-7</v>
       </c>
       <c r="BI106" s="5">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>2.627011740628939E-7</v>
       </c>
       <c r="BJ106" s="8">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.67456946307760635</v>
       </c>
       <c r="BK106" s="8">
         <f t="shared" si="164"/>
-        <v>1</v>
+        <v>0.22543142490995219</v>
       </c>
       <c r="BL106" s="8">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>9.7785456982936211E-2</v>
       </c>
       <c r="BM106" s="8">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.37783430306242294</v>
       </c>
       <c r="BN106" s="8">
         <f t="shared" si="167"/>
-        <v>1</v>
+        <v>0.62016303574002474</v>
       </c>
     </row>
     <row r="107" spans="1:66" x14ac:dyDescent="0.25">
@@ -44150,7 +44702,7 @@
       </c>
       <c r="F110">
         <f>VLOOKUP(B110,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="G110">
         <f>VLOOKUP(C110,away!$B$2:$E$405,4,FALSE)</f>
@@ -44166,231 +44718,231 @@
       </c>
       <c r="J110">
         <f>VLOOKUP(B110,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="K110" s="3">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>0.94729777777777913</v>
       </c>
       <c r="L110" s="3">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>2.5850977777777864</v>
       </c>
       <c r="M110" s="5">
         <f t="shared" si="114"/>
-        <v>1</v>
+        <v>2.9234798331787517E-2</v>
       </c>
       <c r="N110" s="5">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>2.7694059493483837E-2</v>
       </c>
       <c r="O110" s="5">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>7.5574812201285646E-2</v>
       </c>
       <c r="P110" s="5">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>7.1591851654250874E-2</v>
       </c>
       <c r="Q110" s="5">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>1.3117260507911422E-2</v>
       </c>
       <c r="R110" s="5">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>9.7684139538758555E-2</v>
       </c>
       <c r="S110" s="5">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>4.3829558571910288E-2</v>
       </c>
       <c r="T110" s="5">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>3.3909400989534134E-2</v>
       </c>
       <c r="U110" s="5">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>9.2535968309200453E-2</v>
       </c>
       <c r="V110" s="5">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>1.1925815331213516E-2</v>
       </c>
       <c r="W110" s="5">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>4.1419839098922381E-3</v>
       </c>
       <c r="X110" s="5">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1.0707433401053772E-2</v>
       </c>
       <c r="Y110" s="5">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>1.3839881145383879E-2</v>
       </c>
       <c r="Z110" s="5">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>8.4174350681926649E-2</v>
       </c>
       <c r="AA110" s="5">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>7.9738175346876591E-2</v>
       </c>
       <c r="AB110" s="5">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>3.7767898155075537E-2</v>
       </c>
       <c r="AC110" s="5">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1.8252888055667865E-3</v>
       </c>
       <c r="AD110" s="5">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>9.8092303835805835E-4</v>
       </c>
       <c r="AE110" s="5">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>2.535781966630451E-3</v>
       </c>
       <c r="AF110" s="5">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>3.2776221634326828E-3</v>
       </c>
       <c r="AG110" s="5">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>2.8243245903616827E-3</v>
       </c>
       <c r="AH110" s="5">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>5.4399731723434194E-2</v>
       </c>
       <c r="AI110" s="5">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>5.1532744973316558E-2</v>
       </c>
       <c r="AJ110" s="5">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>2.4408427398005896E-2</v>
       </c>
       <c r="AK110" s="5">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>7.7073496777270824E-3</v>
       </c>
       <c r="AL110" s="5">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1.7879487850233053E-4</v>
       </c>
       <c r="AM110" s="5">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>1.8584524288152326E-4</v>
       </c>
       <c r="AN110" s="5">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>4.8042812438359872E-4</v>
       </c>
       <c r="AO110" s="5">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>6.2097683836299564E-4</v>
       </c>
       <c r="AP110" s="5">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>5.3509528163455191E-4</v>
       </c>
       <c r="AQ110" s="5">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>3.4581840586321485E-4</v>
       </c>
       <c r="AR110" s="5">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>2.8125725117991471E-2</v>
       </c>
       <c r="AS110" s="5">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>2.6643436902661983E-2</v>
       </c>
       <c r="AT110" s="5">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1.2619634285127085E-2</v>
       </c>
       <c r="AU110" s="5">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>3.984850504889721E-3</v>
       </c>
       <c r="AV110" s="5">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>9.4371000701467319E-4</v>
       </c>
       <c r="AW110" s="5">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>1.2162309937979236E-5</v>
       </c>
       <c r="AX110" s="5">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>2.9341797598706424E-5</v>
       </c>
       <c r="AY110" s="5">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>7.5851415768421552E-5</v>
       </c>
       <c r="AZ110" s="5">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>9.8041663172122786E-5</v>
       </c>
       <c r="BA110" s="5">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>8.4482428531964276E-5</v>
       </c>
       <c r="BB110" s="5">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>5.4598834564812902E-5</v>
       </c>
       <c r="BC110" s="5">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>2.8228665180550942E-5</v>
       </c>
       <c r="BD110" s="5">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1.2117958250151438E-2</v>
       </c>
       <c r="BE110" s="5">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1.1479314921572359E-2</v>
       </c>
       <c r="BF110" s="5">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>5.437164757808398E-3</v>
       </c>
       <c r="BG110" s="5">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1.7168713641611845E-3</v>
       </c>
       <c r="BH110" s="5">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>4.0659710700004849E-4</v>
       </c>
       <c r="BI110" s="5">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>7.7033707182403991E-5</v>
       </c>
       <c r="BJ110" s="8">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.11556737990398464</v>
       </c>
       <c r="BK110" s="8">
         <f t="shared" si="164"/>
-        <v>1</v>
+        <v>0.15866195898899976</v>
       </c>
       <c r="BL110" s="8">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.62490154424924149</v>
       </c>
       <c r="BM110" s="8">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.66834462299084441</v>
       </c>
       <c r="BN110" s="8">
         <f t="shared" si="167"/>
-        <v>1</v>
+        <v>0.31489692172747785</v>
       </c>
     </row>
     <row r="111" spans="1:66" x14ac:dyDescent="0.25">
@@ -44416,7 +44968,7 @@
       </c>
       <c r="G111">
         <f>VLOOKUP(C111,away!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="H111">
         <f>VLOOKUP(A111,away!$A$2:$E$405,3,FALSE)</f>
@@ -44424,7 +44976,7 @@
       </c>
       <c r="I111">
         <f>VLOOKUP(C111,away!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="J111">
         <f>VLOOKUP(B111,home!$B$2:$E$405,4,FALSE)</f>
@@ -44432,227 +44984,227 @@
       </c>
       <c r="K111" s="3">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1.4026444444444464</v>
       </c>
       <c r="L111" s="3">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>1.4690866666666715</v>
       </c>
       <c r="M111" s="5">
         <f t="shared" si="114"/>
-        <v>1</v>
+        <v>5.6600859345186078E-2</v>
       </c>
       <c r="N111" s="5">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>7.9390880911306777E-2</v>
       </c>
       <c r="O111" s="5">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>8.3151567785888544E-2</v>
       </c>
       <c r="P111" s="5">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>0.11663208460172236</v>
       </c>
       <c r="Q111" s="5">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>5.567858902489755E-2</v>
       </c>
       <c r="R111" s="5">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>6.1078429773339396E-2</v>
       </c>
       <c r="S111" s="5">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>6.008320066124697E-2</v>
       </c>
       <c r="T111" s="5">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>8.1796672755290276E-2</v>
       </c>
       <c r="U111" s="5">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>8.5671320196964773E-2</v>
       </c>
       <c r="V111" s="5">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>1.3756424320792418E-2</v>
       </c>
       <c r="W111" s="5">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>2.6032421190092692E-2</v>
       </c>
       <c r="X111" s="5">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>3.8243882871416099E-2</v>
       </c>
       <c r="Y111" s="5">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>2.8091789203979648E-2</v>
       </c>
       <c r="Z111" s="5">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>2.9909835600316525E-2</v>
       </c>
       <c r="AA111" s="5">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>4.1952864739030697E-2</v>
       </c>
       <c r="AB111" s="5">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>2.942247632736536E-2</v>
       </c>
       <c r="AC111" s="5">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1.7716608720273683E-3</v>
       </c>
       <c r="AD111" s="5">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>9.1285577394303544E-3</v>
       </c>
       <c r="AE111" s="5">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1.3410642460893987E-2</v>
       </c>
       <c r="AF111" s="5">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>9.8506980153666383E-3</v>
       </c>
       <c r="AG111" s="5">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>4.8238430372449913E-3</v>
       </c>
       <c r="AH111" s="5">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1.098503517065428E-2</v>
       </c>
       <c r="AI111" s="5">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>1.5408098554145077E-2</v>
       </c>
       <c r="AJ111" s="5">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1.080604191821205E-2</v>
       </c>
       <c r="AK111" s="5">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>5.0523448876713135E-3</v>
       </c>
       <c r="AL111" s="5">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1.4602781873094035E-4</v>
       </c>
       <c r="AM111" s="5">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>2.5608241598004669E-3</v>
       </c>
       <c r="AN111" s="5">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>3.7620726288407481E-3</v>
       </c>
       <c r="AO111" s="5">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>2.7634053690307886E-3</v>
       </c>
       <c r="AP111" s="5">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1.3532273274127417E-3</v>
       </c>
       <c r="AQ111" s="5">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>4.9700205591775802E-4</v>
       </c>
       <c r="AR111" s="5">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>3.2275937404145287E-3</v>
       </c>
       <c r="AS111" s="5">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>4.5271664289161092E-3</v>
       </c>
       <c r="AT111" s="5">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>3.1750024202972927E-3</v>
       </c>
       <c r="AU111" s="5">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>1.4844665019758895E-3</v>
       </c>
       <c r="AV111" s="5">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>5.2054467299009091E-4</v>
       </c>
       <c r="AW111" s="5">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>8.3584954487879212E-6</v>
       </c>
       <c r="AX111" s="5">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>5.9865429682387299E-4</v>
       </c>
       <c r="AY111" s="5">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>8.7947504540666379E-4</v>
       </c>
       <c r="AZ111" s="5">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>6.4601253143649773E-4</v>
       </c>
       <c r="BA111" s="5">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>3.1634946547764764E-4</v>
       </c>
       <c r="BB111" s="5">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1.161861954350851E-4</v>
       </c>
       <c r="BC111" s="5">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>3.4137518112882311E-5</v>
       </c>
       <c r="BD111" s="5">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>7.9026915490996769E-4</v>
       </c>
       <c r="BE111" s="5">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1.1084666397502738E-3</v>
       </c>
       <c r="BF111" s="5">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>7.7739228704886256E-4</v>
       </c>
       <c r="BG111" s="5">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>3.6346832419434979E-4</v>
       </c>
       <c r="BH111" s="5">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>1.274542064156845E-4</v>
       </c>
       <c r="BI111" s="5">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>3.5754586910007102E-5</v>
       </c>
       <c r="BJ111" s="8">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.35997532380361408</v>
       </c>
       <c r="BK111" s="8">
         <f t="shared" si="164"/>
-        <v>1</v>
+        <v>0.24986973266511281</v>
       </c>
       <c r="BL111" s="8">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.35966575831709463</v>
       </c>
       <c r="BM111" s="8">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.54601712239383915</v>
       </c>
       <c r="BN111" s="8">
         <f t="shared" si="167"/>
-        <v>1</v>
+        <v>0.45253241144234069</v>
       </c>
     </row>
     <row r="112" spans="1:66" x14ac:dyDescent="0.25">
@@ -45464,7 +46016,7 @@
       </c>
       <c r="G115">
         <f>VLOOKUP(C115,away!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>0.93</v>
       </c>
       <c r="H115">
         <f>VLOOKUP(A115,away!$A$2:$E$405,3,FALSE)</f>
@@ -45472,7 +46024,7 @@
       </c>
       <c r="I115">
         <f>VLOOKUP(C115,away!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="J115">
         <f>VLOOKUP(B115,home!$B$2:$E$405,4,FALSE)</f>
@@ -45480,227 +46032,227 @@
       </c>
       <c r="K115" s="3">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1.396653333333338</v>
       </c>
       <c r="L115" s="3">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>1.3528000000000016</v>
       </c>
       <c r="M115" s="5">
         <f t="shared" si="114"/>
-        <v>1</v>
+        <v>6.3962817991484122E-2</v>
       </c>
       <c r="N115" s="5">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>8.9333882957199906E-2</v>
       </c>
       <c r="O115" s="5">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>8.6528900178879833E-2</v>
       </c>
       <c r="P115" s="5">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>0.12085087686450018</v>
       </c>
       <c r="Q115" s="5">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>6.2384232705891773E-2</v>
       </c>
       <c r="R115" s="5">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>5.8528148080994394E-2</v>
       </c>
       <c r="S115" s="5">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>5.7083688999064491E-2</v>
       </c>
       <c r="T115" s="5">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>8.4393390004530486E-2</v>
       </c>
       <c r="U115" s="5">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>8.1743533111148028E-2</v>
       </c>
       <c r="V115" s="5">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>1.1983722361109912E-2</v>
       </c>
       <c r="W115" s="5">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>2.9043048852042126E-2</v>
       </c>
       <c r="X115" s="5">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>3.9289436487042639E-2</v>
       </c>
       <c r="Y115" s="5">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>2.6575374839835672E-2</v>
       </c>
       <c r="Z115" s="5">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>2.6392292907989764E-2</v>
       </c>
       <c r="AA115" s="5">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>3.6860883864253714E-2</v>
       </c>
       <c r="AB115" s="5">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>2.5740938159311506E-2</v>
       </c>
       <c r="AC115" s="5">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1.4151222938161385E-3</v>
       </c>
       <c r="AD115" s="5">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>1.0140767747341902E-2</v>
       </c>
       <c r="AE115" s="5">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1.3718430608604143E-2</v>
       </c>
       <c r="AF115" s="5">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>9.2791464636598538E-3</v>
       </c>
       <c r="AG115" s="5">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>4.1842764453463542E-3</v>
       </c>
       <c r="AH115" s="5">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>8.9258734614821485E-3</v>
       </c>
       <c r="AI115" s="5">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>1.2466350922890621E-2</v>
       </c>
       <c r="AJ115" s="5">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>8.7055852854791612E-3</v>
       </c>
       <c r="AK115" s="5">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>4.0528949025273762E-3</v>
       </c>
       <c r="AL115" s="5">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1.069488652616601E-4</v>
       </c>
       <c r="AM115" s="5">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>2.832627415376853E-3</v>
       </c>
       <c r="AN115" s="5">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>3.8319783675218114E-3</v>
       </c>
       <c r="AO115" s="5">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>2.5919501677917566E-3</v>
       </c>
       <c r="AP115" s="5">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1.1687967289962305E-3</v>
       </c>
       <c r="AQ115" s="5">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>3.9528705374652559E-4</v>
       </c>
       <c r="AR115" s="5">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>2.414984323738613E-3</v>
       </c>
       <c r="AS115" s="5">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>3.3728959056972905E-3</v>
       </c>
       <c r="AT115" s="5">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>2.3553831548392447E-3</v>
       </c>
       <c r="AU115" s="5">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>1.0965512448278083E-3</v>
       </c>
       <c r="AV115" s="5">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>3.8287548781489489E-4</v>
       </c>
       <c r="AW115" s="5">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>5.6130110483595745E-6</v>
       </c>
       <c r="AX115" s="5">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>6.5936642029624593E-4</v>
       </c>
       <c r="AY115" s="5">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>8.919908933767626E-4</v>
       </c>
       <c r="AZ115" s="5">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>6.0334264028004294E-4</v>
       </c>
       <c r="BA115" s="5">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>2.7206730792361431E-4</v>
       </c>
       <c r="BB115" s="5">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>9.2013163539766461E-5</v>
       </c>
       <c r="BC115" s="5">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>2.4895081527319246E-5</v>
       </c>
       <c r="BD115" s="5">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>5.4449846552559879E-4</v>
       </c>
       <c r="BE115" s="5">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>7.6047559687121525E-4</v>
       </c>
       <c r="BF115" s="5">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>5.3106038864442131E-4</v>
       </c>
       <c r="BG115" s="5">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>2.4723575400050965E-4</v>
       </c>
       <c r="BH115" s="5">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>8.6325659985998237E-5</v>
       </c>
       <c r="BI115" s="5">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>2.4113404154328945E-5</v>
       </c>
       <c r="BJ115" s="8">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.38170630235187175</v>
       </c>
       <c r="BK115" s="8">
         <f t="shared" si="164"/>
-        <v>1</v>
+        <v>0.25629516826861326</v>
       </c>
       <c r="BL115" s="8">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.3353695073530667</v>
       </c>
       <c r="BM115" s="8">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.51728803422026315</v>
       </c>
       <c r="BN115" s="8">
         <f t="shared" si="167"/>
-        <v>1</v>
+        <v>0.48158885877895019</v>
       </c>
     </row>
     <row r="116" spans="1:66" x14ac:dyDescent="0.25">
@@ -48866,7 +49418,7 @@
       </c>
       <c r="F128">
         <f>VLOOKUP(B128,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="G128">
         <f>VLOOKUP(C128,away!$B$2:$E$405,4,FALSE)</f>
@@ -48882,231 +49434,231 @@
       </c>
       <c r="J128">
         <f>VLOOKUP(B128,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="K128" s="3">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1.3701245454545503</v>
       </c>
       <c r="L128" s="3">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>0.32104727272727351</v>
       </c>
       <c r="M128" s="5">
         <f t="shared" si="114"/>
-        <v>1</v>
+        <v>0.18430342729761906</v>
       </c>
       <c r="N128" s="5">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>0.25251864955186604</v>
       </c>
       <c r="O128" s="5">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>5.9170112688189926E-2</v>
       </c>
       <c r="P128" s="5">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>8.1070423751400736E-2</v>
       </c>
       <c r="Q128" s="5">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>0.17299099996802372</v>
       </c>
       <c r="R128" s="5">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>9.4982016527544056E-3</v>
       </c>
       <c r="S128" s="5">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>8.9152080669372708E-3</v>
       </c>
       <c r="T128" s="5">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>5.5538288746097869E-2</v>
       </c>
       <c r="U128" s="5">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>1.3013719222115788E-2</v>
       </c>
       <c r="V128" s="5">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>4.35730545254819E-4</v>
       </c>
       <c r="W128" s="5">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>7.9006405066305532E-2</v>
       </c>
       <c r="X128" s="5">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>2.5364790874523636E-2</v>
       </c>
       <c r="Y128" s="5">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>4.0716484667817224E-3</v>
       </c>
       <c r="Z128" s="5">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1.0164572454768282E-3</v>
       </c>
       <c r="AA128" s="5">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>1.3926730214329232E-3</v>
       </c>
       <c r="AB128" s="5">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>9.5406774522879985E-4</v>
       </c>
       <c r="AC128" s="5">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1.1979179003611716E-5</v>
       </c>
       <c r="AD128" s="5">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>2.7062153707367489E-2</v>
       </c>
       <c r="AE128" s="5">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>8.6882306418766056E-3</v>
       </c>
       <c r="AF128" s="5">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>1.3946663762000062E-3</v>
       </c>
       <c r="AG128" s="5">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1.4925127881448058E-4</v>
       </c>
       <c r="AH128" s="5">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>8.1582706626053073E-5</v>
       </c>
       <c r="AI128" s="5">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>1.117784688329729E-4</v>
       </c>
       <c r="AJ128" s="5">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>7.6575211900691321E-5</v>
       </c>
       <c r="AK128" s="5">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>3.497252579950685E-5</v>
       </c>
       <c r="AL128" s="5">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>2.1077353411305352E-7</v>
       </c>
       <c r="AM128" s="5">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>7.4157042094656093E-3</v>
       </c>
       <c r="AN128" s="5">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>2.3807916118010952E-3</v>
       </c>
       <c r="AO128" s="5">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>3.8217332695035554E-4</v>
       </c>
       <c r="AP128" s="5">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>4.0898568108840096E-5</v>
       </c>
       <c r="AQ128" s="5">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>3.2825934374484378E-6</v>
       </c>
       <c r="AR128" s="5">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>5.2383810928007249E-6</v>
       </c>
       <c r="AS128" s="5">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>7.1772345136913032E-6</v>
       </c>
       <c r="AT128" s="5">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>4.9168525878460042E-6</v>
       </c>
       <c r="AU128" s="5">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>2.2455668056631784E-6</v>
       </c>
       <c r="AV128" s="5">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>7.6917654972427229E-7</v>
       </c>
       <c r="AW128" s="5">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>2.5753876481291332E-9</v>
       </c>
       <c r="AX128" s="5">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1.693406393203242E-3</v>
       </c>
       <c r="AY128" s="5">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>5.4366350415682978E-4</v>
       </c>
       <c r="AZ128" s="5">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>8.7270842645451431E-5</v>
       </c>
       <c r="BA128" s="5">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>9.3393553399777401E-6</v>
       </c>
       <c r="BB128" s="5">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>7.4959364023268768E-7</v>
       </c>
       <c r="BC128" s="5">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>4.8130998770082719E-8</v>
       </c>
       <c r="BD128" s="5">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>2.8029466055829762E-7</v>
       </c>
       <c r="BE128" s="5">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>3.8403859439077497E-7</v>
       </c>
       <c r="BF128" s="5">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>2.6309035228833252E-7</v>
       </c>
       <c r="BG128" s="5">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>1.2015551644750971E-7</v>
       </c>
       <c r="BH128" s="5">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>4.1157005589125246E-8</v>
       </c>
       <c r="BI128" s="5">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1.127804471501412E-8</v>
       </c>
       <c r="BJ128" s="8">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.63934241280760495</v>
       </c>
       <c r="BK128" s="8">
         <f t="shared" si="164"/>
-        <v>1</v>
+        <v>0.27528064311790645</v>
       </c>
       <c r="BL128" s="8">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>8.4355130468604836E-2</v>
       </c>
       <c r="BM128" s="8">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.23989916780097004</v>
       </c>
       <c r="BN128" s="8">
         <f t="shared" si="167"/>
-        <v>1</v>
+        <v>0.75955181490985391</v>
       </c>
     </row>
     <row r="129" spans="1:66" x14ac:dyDescent="0.25">
@@ -51486,7 +52038,7 @@
       </c>
       <c r="F138">
         <f>VLOOKUP(B138,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="G138">
         <f>VLOOKUP(C138,away!$B$2:$E$405,4,FALSE)</f>
@@ -51502,231 +52054,231 @@
       </c>
       <c r="J138">
         <f>VLOOKUP(B138,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="K138" s="3">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1.2996388888888897</v>
       </c>
       <c r="L138" s="3">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>0.9273895833333341</v>
       </c>
       <c r="M138" s="5">
         <f t="shared" si="114"/>
-        <v>1</v>
+        <v>0.10784842906022529</v>
       </c>
       <c r="N138" s="5">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>0.14016401251224347</v>
       </c>
       <c r="O138" s="5">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>0.10001750968931697</v>
       </c>
       <c r="P138" s="5">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>0.12998664516205768</v>
       </c>
       <c r="Q138" s="5">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>9.1081300741810284E-2</v>
       </c>
       <c r="R138" s="5">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>4.6377598318406682E-2</v>
       </c>
       <c r="S138" s="5">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>3.9167301897024498E-2</v>
       </c>
       <c r="T138" s="5">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>8.4467849544405518E-2</v>
       </c>
       <c r="U138" s="5">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>6.0274130347869312E-2</v>
       </c>
       <c r="V138" s="5">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>5.245248373118413E-3</v>
       </c>
       <c r="W138" s="5">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>3.9457600164880355E-2</v>
       </c>
       <c r="X138" s="5">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>3.6592567376241683E-2</v>
       </c>
       <c r="Y138" s="5">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>1.6967782906074865E-2</v>
       </c>
       <c r="Z138" s="5">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1.4336700526835972E-2</v>
       </c>
       <c r="AA138" s="5">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>1.8632533543029864E-2</v>
       </c>
       <c r="AB138" s="5">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1.2107782595524154E-2</v>
       </c>
       <c r="AC138" s="5">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>3.9512179558653032E-4</v>
       </c>
       <c r="AD138" s="5">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>1.2820157909126807E-2</v>
       </c>
       <c r="AE138" s="5">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1.1889280901612656E-2</v>
       </c>
       <c r="AF138" s="5">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>5.5129976307397638E-3</v>
       </c>
       <c r="AG138" s="5">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1.7042321918964696E-3</v>
       </c>
       <c r="AH138" s="5">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>3.3239266819893002E-3</v>
       </c>
       <c r="AI138" s="5">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>4.3199043797287088E-3</v>
       </c>
       <c r="AJ138" s="5">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>2.8071578640884338E-3</v>
       </c>
       <c r="AK138" s="5">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>1.2160971758065331E-3</v>
       </c>
       <c r="AL138" s="5">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1.9049162639177733E-5</v>
       </c>
       <c r="AM138" s="5">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>3.3323151560795301E-3</v>
       </c>
       <c r="AN138" s="5">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>3.090354364131949E-3</v>
       </c>
       <c r="AO138" s="5">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1.4329812230523395E-3</v>
       </c>
       <c r="AP138" s="5">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>4.4297728645700026E-4</v>
       </c>
       <c r="AQ138" s="5">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>1.027031302783721E-4</v>
       </c>
       <c r="AR138" s="5">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>6.1651499612812202E-4</v>
       </c>
       <c r="AS138" s="5">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>8.0124686455129073E-4</v>
       </c>
       <c r="AT138" s="5">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>5.2066579238557319E-4</v>
       </c>
       <c r="AU138" s="5">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>2.2555917063281312E-4</v>
       </c>
       <c r="AV138" s="5">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>7.3286367474982263E-5</v>
       </c>
       <c r="AW138" s="5">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>6.3776150323751065E-7</v>
       </c>
       <c r="AX138" s="5">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>7.2180106114580077E-4</v>
       </c>
       <c r="AY138" s="5">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>6.6939078534556252E-4</v>
       </c>
       <c r="AZ138" s="5">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>3.1039302075439723E-4</v>
       </c>
       <c r="BA138" s="5">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>9.5951751395665147E-5</v>
       </c>
       <c r="BB138" s="5">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>2.2246163686732385E-5</v>
       </c>
       <c r="BC138" s="5">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>4.12617209444078E-6</v>
       </c>
       <c r="BD138" s="5">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>9.5291597563001813E-5</v>
       </c>
       <c r="BE138" s="5">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1.2384466597722691E-4</v>
       </c>
       <c r="BF138" s="5">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>8.0476672042729456E-5</v>
       </c>
       <c r="BG138" s="5">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>3.4863537545029479E-5</v>
       </c>
       <c r="BH138" s="5">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>1.1327502299439562E-5</v>
       </c>
       <c r="BI138" s="5">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>2.9443325004659906E-6</v>
       </c>
       <c r="BJ138" s="8">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.4508830219934537</v>
       </c>
       <c r="BK138" s="8">
         <f t="shared" si="164"/>
-        <v>1</v>
+        <v>0.28333118623599712</v>
       </c>
       <c r="BL138" s="8">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.2516626620948606</v>
       </c>
       <c r="BM138" s="8">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.3840693223432447</v>
       </c>
       <c r="BN138" s="8">
         <f t="shared" si="167"/>
-        <v>1</v>
+        <v>0.61547549548406044</v>
       </c>
     </row>
     <row r="139" spans="1:66" x14ac:dyDescent="0.25">
@@ -51752,7 +52304,7 @@
       </c>
       <c r="G139">
         <f>VLOOKUP(C139,away!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H139">
         <f>VLOOKUP(A139,away!$A$2:$E$405,3,FALSE)</f>
@@ -51760,7 +52312,7 @@
       </c>
       <c r="I139">
         <f>VLOOKUP(C139,away!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="J139">
         <f>VLOOKUP(B139,home!$B$2:$E$405,4,FALSE)</f>
@@ -51768,227 +52320,227 @@
       </c>
       <c r="K139" s="3">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>0.6998055555555559</v>
       </c>
       <c r="L139" s="3">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>1.1198666666666672</v>
       </c>
       <c r="M139" s="5">
         <f t="shared" si="114"/>
-        <v>1</v>
+        <v>0.16207886807929886</v>
       </c>
       <c r="N139" s="5">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>0.11342369232004941</v>
       </c>
       <c r="O139" s="5">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>0.18150672173307092</v>
       </c>
       <c r="P139" s="5">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>0.12701941223947941</v>
       </c>
       <c r="Q139" s="5">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>3.9687265008597296E-2</v>
       </c>
       <c r="R139" s="5">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>0.10163166372240426</v>
       </c>
       <c r="S139" s="5">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>2.4885926334593328E-2</v>
       </c>
       <c r="T139" s="5">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>4.4444445174294515E-2</v>
       </c>
       <c r="U139" s="5">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>7.1122402893292552E-2</v>
       </c>
       <c r="V139" s="5">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>2.1669805114798765E-3</v>
       </c>
       <c r="W139" s="5">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>9.2577895126073392E-3</v>
       </c>
       <c r="X139" s="5">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1.0367489882185211E-2</v>
       </c>
       <c r="Y139" s="5">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>5.8051031680315763E-3</v>
       </c>
       <c r="Z139" s="5">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>3.7937970826865487E-2</v>
       </c>
       <c r="AA139" s="5">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>2.6549202751145074E-2</v>
       </c>
       <c r="AB139" s="5">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>9.2896397904110844E-3</v>
       </c>
       <c r="AC139" s="5">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1.0613991284165741E-4</v>
       </c>
       <c r="AD139" s="5">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>1.6196631332716439E-3</v>
       </c>
       <c r="AE139" s="5">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1.8138067541798059E-3</v>
       </c>
       <c r="AF139" s="5">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>1.0156108618904135E-3</v>
       </c>
       <c r="AG139" s="5">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>3.7911625017855927E-4</v>
       </c>
       <c r="AH139" s="5">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1.0621367232494783E-2</v>
       </c>
       <c r="AI139" s="5">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>7.4328917968955899E-3</v>
       </c>
       <c r="AJ139" s="5">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>2.6007894866554256E-3</v>
       </c>
       <c r="AK139" s="5">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>6.0668231053065001E-4</v>
       </c>
       <c r="AL139" s="5">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>3.3272269245367037E-6</v>
       </c>
       <c r="AM139" s="5">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>2.2668985175840309E-4</v>
       </c>
       <c r="AN139" s="5">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>2.538624086558438E-4</v>
       </c>
       <c r="AO139" s="5">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1.4214602468669559E-4</v>
       </c>
       <c r="AP139" s="5">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>5.3061531615269173E-5</v>
       </c>
       <c r="AQ139" s="5">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>1.4855460134554873E-5</v>
       </c>
       <c r="AR139" s="5">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>2.3789030236192987E-3</v>
       </c>
       <c r="AS139" s="5">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>1.664769552056695E-3</v>
       </c>
       <c r="AT139" s="5">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>5.8250749062450458E-4</v>
       </c>
       <c r="AU139" s="5">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>1.3588065936391813E-4</v>
       </c>
       <c r="AV139" s="5">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>2.3772510078855485E-5</v>
       </c>
       <c r="AW139" s="5">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>7.2430857162022334E-8</v>
       </c>
       <c r="AX139" s="5">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>2.6439802941432644E-5</v>
       </c>
       <c r="AY139" s="5">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>2.9609053987345719E-5</v>
       </c>
       <c r="AZ139" s="5">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>1.6579096295981126E-5</v>
       </c>
       <c r="BA139" s="5">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>6.1887924351086884E-6</v>
       </c>
       <c r="BB139" s="5">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1.7326555887492642E-6</v>
       </c>
       <c r="BC139" s="5">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>3.8806864773080189E-7</v>
       </c>
       <c r="BD139" s="5">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>4.4400903323063307E-4</v>
       </c>
       <c r="BE139" s="5">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>3.107199881716485E-4</v>
       </c>
       <c r="BF139" s="5">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1.0872178697233809E-4</v>
       </c>
       <c r="BG139" s="5">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>2.5361370177723293E-5</v>
       </c>
       <c r="BH139" s="5">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>4.4370069367179381E-6</v>
       </c>
       <c r="BI139" s="5">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>6.2100842087075052E-7</v>
       </c>
       <c r="BJ139" s="8">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.22858553481203295</v>
       </c>
       <c r="BK139" s="8">
         <f t="shared" si="164"/>
-        <v>1</v>
+        <v>0.31629026335860499</v>
       </c>
       <c r="BL139" s="8">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.41704106514655354</v>
       </c>
       <c r="BM139" s="8">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.27447767441802656</v>
       </c>
       <c r="BN139" s="8">
         <f t="shared" si="167"/>
-        <v>1</v>
+        <v>0.72534762310290024</v>
       </c>
     </row>
     <row r="140" spans="1:66" x14ac:dyDescent="0.25">
@@ -52800,7 +53352,7 @@
       </c>
       <c r="G143">
         <f>VLOOKUP(C143,away!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="H143">
         <f>VLOOKUP(A143,away!$A$2:$E$405,3,FALSE)</f>
@@ -52808,7 +53360,7 @@
       </c>
       <c r="I143">
         <f>VLOOKUP(C143,away!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="J143">
         <f>VLOOKUP(B143,home!$B$2:$E$405,4,FALSE)</f>
@@ -52816,227 +53368,227 @@
       </c>
       <c r="K143" s="3">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>0.69464827586206923</v>
       </c>
       <c r="L143" s="3">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>0.86449999999999916</v>
       </c>
       <c r="M143" s="5">
         <f t="shared" si="114"/>
-        <v>1</v>
+        <v>0.21031512540642669</v>
       </c>
       <c r="N143" s="5">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>0.14609503925128917</v>
       </c>
       <c r="O143" s="5">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>0.18181742591385569</v>
       </c>
       <c r="P143" s="5">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>0.12629916143273937</v>
       </c>
       <c r="Q143" s="5">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>5.0742333563954675E-2</v>
       </c>
       <c r="R143" s="5">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>7.8590582351264038E-2</v>
       </c>
       <c r="S143" s="5">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>1.896140154897024E-2</v>
       </c>
       <c r="T143" s="5">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>4.3866747366038773E-2</v>
       </c>
       <c r="U143" s="5">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>5.4592812529301531E-2</v>
       </c>
       <c r="V143" s="5">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>1.2651962200882559E-3</v>
       </c>
       <c r="W143" s="5">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>1.174935817447304E-2</v>
       </c>
       <c r="X143" s="5">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>1.0157320141831934E-2</v>
       </c>
       <c r="Y143" s="5">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>4.3905016313068486E-3</v>
       </c>
       <c r="Z143" s="5">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>2.2647186147555901E-2</v>
       </c>
       <c r="AA143" s="5">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>1.5731828810527045E-2</v>
       </c>
       <c r="AB143" s="5">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>5.4640438796949194E-3</v>
       </c>
       <c r="AC143" s="5">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>4.748624871137517E-5</v>
       </c>
       <c r="AD143" s="5">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>2.0404178495959011E-3</v>
       </c>
       <c r="AE143" s="5">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1.7639412309756548E-3</v>
       </c>
       <c r="AF143" s="5">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>7.6246359708922605E-4</v>
       </c>
       <c r="AG143" s="5">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>2.1971659322787845E-4</v>
       </c>
       <c r="AH143" s="5">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>4.8946231061405129E-3</v>
       </c>
       <c r="AI143" s="5">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>3.4000415016751527E-3</v>
       </c>
       <c r="AJ143" s="5">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>1.1809164834990628E-3</v>
       </c>
       <c r="AK143" s="5">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>2.7344053306657391E-4</v>
       </c>
       <c r="AL143" s="5">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1.1406642066743E-6</v>
       </c>
       <c r="AM143" s="5">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>2.8347454825199689E-4</v>
       </c>
       <c r="AN143" s="5">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>2.4506374696385108E-4</v>
       </c>
       <c r="AO143" s="5">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1.0592880462512451E-4</v>
       </c>
       <c r="AP143" s="5">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>3.0525150532806689E-5</v>
       </c>
       <c r="AQ143" s="5">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>6.5972481589028369E-6</v>
       </c>
       <c r="AR143" s="5">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>8.4628033505169422E-4</v>
       </c>
       <c r="AS143" s="5">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>5.8786717563963364E-4</v>
       </c>
       <c r="AT143" s="5">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>2.0418045999698786E-4</v>
       </c>
       <c r="AU143" s="5">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>4.7277868167210608E-5</v>
       </c>
       <c r="AV143" s="5">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>8.210372402196763E-6</v>
       </c>
       <c r="AW143" s="5">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>1.9027655193988911E-8</v>
       </c>
       <c r="AX143" s="5">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>3.2819184365671417E-5</v>
       </c>
       <c r="AY143" s="5">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>2.8372184884122909E-5</v>
       </c>
       <c r="AZ143" s="5">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>1.2263876916162114E-5</v>
       </c>
       <c r="BA143" s="5">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>3.5340405313407132E-6</v>
       </c>
       <c r="BB143" s="5">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>7.637945098360106E-7</v>
       </c>
       <c r="BC143" s="5">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>1.3206007075064618E-7</v>
       </c>
       <c r="BD143" s="5">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1.2193489160869812E-4</v>
       </c>
       <c r="BE143" s="5">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>8.4701862223410428E-5</v>
       </c>
       <c r="BF143" s="5">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>2.9419001277899296E-5</v>
       </c>
       <c r="BG143" s="5">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>6.8119528384255862E-6</v>
       </c>
       <c r="BH143" s="5">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>1.1829778236165153E-6</v>
       </c>
       <c r="BI143" s="5">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1.6435070111165516E-7</v>
       </c>
       <c r="BJ143" s="8">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.27253731403959369</v>
       </c>
       <c r="BK143" s="8">
         <f t="shared" si="164"/>
-        <v>1</v>
+        <v>0.35691788370602673</v>
       </c>
       <c r="BL143" s="8">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.3478837463567554</v>
       </c>
       <c r="BM143" s="8">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.20609810917317314</v>
       </c>
       <c r="BN143" s="8">
         <f t="shared" si="167"/>
-        <v>1</v>
+        <v>0.79385966791952955</v>
       </c>
     </row>
     <row r="144" spans="1:66" x14ac:dyDescent="0.25">
@@ -53058,7 +53610,7 @@
       </c>
       <c r="F144">
         <f>VLOOKUP(B144,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="G144">
         <f>VLOOKUP(C144,away!$B$2:$E$405,4,FALSE)</f>
@@ -53074,231 +53626,231 @@
       </c>
       <c r="J144">
         <f>VLOOKUP(B144,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="K144" s="3">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1.2106250000000003</v>
       </c>
       <c r="L144" s="3">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>0.92905086206896459</v>
       </c>
       <c r="M144" s="5">
         <f t="shared" si="114"/>
-        <v>1</v>
+        <v>0.11769298560056687</v>
       </c>
       <c r="N144" s="5">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>0.14248207069268631</v>
       </c>
       <c r="O144" s="5">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>0.10934276973167691</v>
       </c>
       <c r="P144" s="5">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>0.13237309060641136</v>
       </c>
       <c r="Q144" s="5">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>8.6246178416166733E-2</v>
       </c>
       <c r="R144" s="5">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>5.0792497240111339E-2</v>
       </c>
       <c r="S144" s="5">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>3.7221069351070987E-2</v>
       </c>
       <c r="T144" s="5">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>8.0127086407693435E-2</v>
       </c>
       <c r="U144" s="5">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>6.1490666971309803E-2</v>
       </c>
       <c r="V144" s="5">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>4.6515261348413035E-3</v>
       </c>
       <c r="W144" s="5">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>3.4803926581690625E-2</v>
       </c>
       <c r="X144" s="5">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>3.2334617994104628E-2</v>
       </c>
       <c r="Y144" s="5">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>1.5020252361046774E-2</v>
       </c>
       <c r="Z144" s="5">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1.5729604449186984E-2</v>
       </c>
       <c r="AA144" s="5">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>1.9042652386296998E-2</v>
       </c>
       <c r="AB144" s="5">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1.1526755522580407E-2</v>
       </c>
       <c r="AC144" s="5">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>3.2698257640601924E-4</v>
       </c>
       <c r="AD144" s="5">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>1.0533625904489802E-2</v>
       </c>
       <c r="AE144" s="5">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>9.7862742272782268E-3</v>
       </c>
       <c r="AF144" s="5">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>4.5459732536480627E-3</v>
       </c>
       <c r="AG144" s="5">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>1.4078134567480629E-3</v>
       </c>
       <c r="AH144" s="5">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>3.6534006433802473E-3</v>
       </c>
       <c r="AI144" s="5">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>4.4228981538922121E-3</v>
       </c>
       <c r="AJ144" s="5">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>2.6772355387778813E-3</v>
       </c>
       <c r="AK144" s="5">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>1.0803760913776579E-3</v>
       </c>
       <c r="AL144" s="5">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1.471071329950298E-5</v>
       </c>
       <c r="AM144" s="5">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>2.5504541721245921E-3</v>
       </c>
       <c r="AN144" s="5">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>2.3695016472797398E-3</v>
       </c>
       <c r="AO144" s="5">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1.1006937740395367E-3</v>
       </c>
       <c r="AP144" s="5">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>3.4086683321512461E-4</v>
       </c>
       <c r="AQ144" s="5">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>7.9170656312307374E-5</v>
       </c>
       <c r="AR144" s="5">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>6.7883900344314582E-4</v>
       </c>
       <c r="AS144" s="5">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>8.2181946854335863E-4</v>
       </c>
       <c r="AT144" s="5">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>4.9745759705265209E-4</v>
       </c>
       <c r="AU144" s="5">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>2.0074486781062234E-4</v>
       </c>
       <c r="AV144" s="5">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>6.0756688898308664E-5</v>
       </c>
       <c r="AW144" s="5">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>4.596003592037228E-7</v>
       </c>
       <c r="AX144" s="5">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>5.1460726368805592E-4</v>
       </c>
       <c r="AY144" s="5">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>4.7809632195633937E-4</v>
       </c>
       <c r="AZ144" s="5">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>2.2208790003276909E-4</v>
       </c>
       <c r="BA144" s="5">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>6.8776984993510062E-5</v>
       </c>
       <c r="BB144" s="5">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>1.5974329299681192E-5</v>
       </c>
       <c r="BC144" s="5">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>2.9681928813684667E-6</v>
       </c>
       <c r="BD144" s="5">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1.051126602258152E-4</v>
       </c>
       <c r="BE144" s="5">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1.2725201428587756E-4</v>
       </c>
       <c r="BF144" s="5">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>7.7027234897420301E-5</v>
       </c>
       <c r="BG144" s="5">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>3.1083698749229824E-5</v>
       </c>
       <c r="BH144" s="5">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>9.4076756995715886E-6</v>
       </c>
       <c r="BI144" s="5">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>2.2778334787587701E-6</v>
       </c>
       <c r="BJ144" s="8">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.42503101737137566</v>
       </c>
       <c r="BK144" s="8">
         <f t="shared" si="164"/>
-        <v>1</v>
+        <v>0.29275846130455241</v>
       </c>
       <c r="BL144" s="8">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.26664103102248826</v>
       </c>
       <c r="BM144" s="8">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.3607528851383866</v>
       </c>
       <c r="BN144" s="8">
         <f t="shared" si="167"/>
-        <v>1</v>
+        <v>0.63892959228761959</v>
       </c>
     </row>
     <row r="145" spans="1:66" x14ac:dyDescent="0.25">
@@ -53582,11 +54134,11 @@
       </c>
       <c r="F146">
         <f>VLOOKUP(B146,home!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="G146">
         <f>VLOOKUP(C146,away!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="H146">
         <f>VLOOKUP(A146,away!$A$2:$E$405,3,FALSE)</f>
@@ -53594,235 +54146,235 @@
       </c>
       <c r="I146">
         <f>VLOOKUP(C146,away!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="J146">
         <f>VLOOKUP(B146,home!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="K146" s="3">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>0.56138666666666703</v>
       </c>
       <c r="L146" s="3">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>0.8244944444444452</v>
       </c>
       <c r="M146" s="5">
         <f t="shared" si="114"/>
-        <v>1</v>
+        <v>0.25010333385208167</v>
       </c>
       <c r="N146" s="5">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>0.14040467691344069</v>
       </c>
       <c r="O146" s="5">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>0.20620880929807564</v>
       </c>
       <c r="P146" s="5">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>0.11576287608914909</v>
       </c>
       <c r="Q146" s="5">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>3.9410656778423404E-2</v>
       </c>
       <c r="R146" s="5">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>8.500900883088372E-2</v>
       </c>
       <c r="S146" s="5">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>1.3395506643223571E-2</v>
       </c>
       <c r="T146" s="5">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>3.2493867565716913E-2</v>
       </c>
       <c r="U146" s="5">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>4.7722924104207066E-2</v>
       </c>
       <c r="V146" s="5">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>6.8891630236146695E-4</v>
       </c>
       <c r="W146" s="5">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>7.3748724133277351E-3</v>
       </c>
       <c r="X146" s="5">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>6.0805413332753154E-3</v>
       </c>
       <c r="Y146" s="5">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>2.5066862742501588E-3</v>
       </c>
       <c r="Z146" s="5">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>2.3363151836264133E-2</v>
       </c>
       <c r="AA146" s="5">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>1.3115761932187543E-2</v>
       </c>
       <c r="AB146" s="5">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>3.6815069359521645E-3</v>
       </c>
       <c r="AC146" s="5">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1.9929495570327008E-5</v>
       </c>
       <c r="AD146" s="5">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>1.0350387603025037E-3</v>
       </c>
       <c r="AE146" s="5">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>8.5338370765407996E-4</v>
       </c>
       <c r="AF146" s="5">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>3.5180506297009578E-4</v>
       </c>
       <c r="AG146" s="5">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>9.6687106648757389E-5</v>
       </c>
       <c r="AH146" s="5">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>4.8156972234279539E-3</v>
       </c>
       <c r="AI146" s="5">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>2.7034682119361424E-3</v>
       </c>
       <c r="AJ146" s="5">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>7.5884550396906273E-4</v>
       </c>
       <c r="AK146" s="5">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>1.4200191599605976E-4</v>
       </c>
       <c r="AL146" s="5">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>3.6898280253896914E-7</v>
       </c>
       <c r="AM146" s="5">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>1.162113919034044E-4</v>
       </c>
       <c r="AN146" s="5">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>9.5815647005513107E-5</v>
       </c>
       <c r="AO146" s="5">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>3.9499734323447802E-5</v>
       </c>
       <c r="AP146" s="5">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>1.0855770502238093E-5</v>
       </c>
       <c r="AQ146" s="5">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>2.2376306173147976E-6</v>
       </c>
       <c r="AR146" s="5">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>7.9410312136857794E-4</v>
       </c>
       <c r="AS146" s="5">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>4.4579890429470169E-4</v>
       </c>
       <c r="AT146" s="5">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>1.2513278044282755E-4</v>
       </c>
       <c r="AU146" s="5">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>2.3415958167843623E-5</v>
       </c>
       <c r="AV146" s="5">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>3.2863516756629614E-6</v>
       </c>
       <c r="AW146" s="5">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>4.7440958138136152E-9</v>
       </c>
       <c r="AX146" s="5">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1.0873254321557648E-5</v>
       </c>
       <c r="AY146" s="5">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>8.9649377811558346E-6</v>
       </c>
       <c r="AZ146" s="5">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>3.6957706976765487E-6</v>
       </c>
       <c r="BA146" s="5">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1.0157141360582952E-6</v>
       </c>
       <c r="BB146" s="5">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>2.0936266558093842E-7</v>
       </c>
       <c r="BC146" s="5">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>3.4523670929112808E-8</v>
       </c>
       <c r="BD146" s="5">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>1.091222686473975E-4</v>
       </c>
       <c r="BE146" s="5">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>6.1259786655067032E-5</v>
       </c>
       <c r="BF146" s="5">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1.7195213715499627E-5</v>
       </c>
       <c r="BG146" s="5">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>3.2177212367884306E-6</v>
       </c>
       <c r="BH146" s="5">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>4.5159644984580049E-7</v>
       </c>
       <c r="BI146" s="5">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>5.0704045131486936E-8</v>
       </c>
       <c r="BJ146" s="8">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.23089762965363456</v>
       </c>
       <c r="BK146" s="8">
         <f t="shared" si="164"/>
-        <v>1</v>
+        <v>0.3799798963029698</v>
       </c>
       <c r="BL146" s="8">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.3657410583633347</v>
       </c>
       <c r="BM146" s="8">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.16307341420046362</v>
       </c>
       <c r="BN146" s="8">
         <f t="shared" si="167"/>
-        <v>1</v>
+        <v>0.83689936176205415</v>
       </c>
     </row>
     <row r="147" spans="1:66" x14ac:dyDescent="0.25">
@@ -54372,7 +54924,7 @@
       </c>
       <c r="G149">
         <f>VLOOKUP(C149,away!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="H149">
         <f>VLOOKUP(A149,away!$A$2:$E$405,3,FALSE)</f>
@@ -54380,7 +54932,7 @@
       </c>
       <c r="I149">
         <f>VLOOKUP(C149,away!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="J149">
         <f>VLOOKUP(B149,home!$B$2:$E$405,4,FALSE)</f>
@@ -54388,227 +54940,227 @@
       </c>
       <c r="K149" s="3">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>1.3916474074074119</v>
       </c>
       <c r="L149" s="3">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>0.9526296296296306</v>
       </c>
       <c r="M149" s="5">
         <f t="shared" si="114"/>
-        <v>1</v>
+        <v>9.5916521162269133E-2</v>
       </c>
       <c r="N149" s="5">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v>0.13348197800300998</v>
       </c>
       <c r="O149" s="5">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>9.1372920030175067E-2</v>
       </c>
       <c r="P149" s="5">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>0.1271588872672379</v>
       </c>
       <c r="Q149" s="5">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>9.2879924311751044E-2</v>
       </c>
       <c r="R149" s="5">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>4.352227548326177E-2</v>
       </c>
       <c r="S149" s="5">
         <f t="shared" si="120"/>
-        <v>0</v>
+        <v>4.2144414786705969E-2</v>
       </c>
       <c r="T149" s="5">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>8.848016789713152E-2</v>
       </c>
       <c r="U149" s="5">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>6.05676618407524E-2</v>
       </c>
       <c r="V149" s="5">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>6.2079872787854018E-3</v>
       </c>
       <c r="W149" s="5">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>4.3085368622881655E-2</v>
       </c>
       <c r="X149" s="5">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>4.1044398753671857E-2</v>
       </c>
       <c r="Y149" s="5">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>1.9550055191540648E-2</v>
       </c>
       <c r="Z149" s="5">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>1.3820203058086136E-2</v>
       </c>
       <c r="AA149" s="5">
         <f t="shared" si="128"/>
-        <v>0</v>
+        <v>1.9232849755629555E-2</v>
       </c>
       <c r="AB149" s="5">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v>1.3382672749739078E-2</v>
       </c>
       <c r="AC149" s="5">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>5.1438007301424107E-4</v>
       </c>
       <c r="AD149" s="5">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>1.4989910385306478E-2</v>
       </c>
       <c r="AE149" s="5">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>1.4279832778535865E-2</v>
       </c>
       <c r="AF149" s="5">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>6.8016959054948405E-3</v>
       </c>
       <c r="AG149" s="5">
         <f t="shared" si="134"/>
-        <v>0</v>
+        <v>2.1598323504349749E-3</v>
       </c>
       <c r="AH149" s="5">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>3.2913837301577205E-3</v>
       </c>
       <c r="AI149" s="5">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>4.5804456348569281E-3</v>
       </c>
       <c r="AJ149" s="5">
         <f t="shared" si="137"/>
-        <v>0</v>
+        <v>3.1871826462596215E-3</v>
       </c>
       <c r="AK149" s="5">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v>1.4784781555336986E-3</v>
       </c>
       <c r="AL149" s="5">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>2.7277051721371702E-5</v>
       </c>
       <c r="AM149" s="5">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>4.172133984996238E-3</v>
       </c>
       <c r="AN149" s="5">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>3.9744984528921612E-3</v>
       </c>
       <c r="AO149" s="5">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1.8931124945710997E-3</v>
       </c>
       <c r="AP149" s="5">
         <f t="shared" si="143"/>
-        <v>0</v>
+        <v>6.0114501818349765E-4</v>
       </c>
       <c r="AQ149" s="5">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>1.431671390064607E-4</v>
       </c>
       <c r="AR149" s="5">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>6.2709393276582834E-4</v>
       </c>
       <c r="AS149" s="5">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>8.7269364573448283E-4</v>
       </c>
       <c r="AT149" s="5">
         <f t="shared" si="147"/>
-        <v>0</v>
+        <v>6.0724092477365793E-4</v>
       </c>
       <c r="AU149" s="5">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v>2.816884195443134E-4</v>
       </c>
       <c r="AV149" s="5">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>9.8002739688883781E-5</v>
       </c>
       <c r="AW149" s="5">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>1.0044960343266071E-6</v>
       </c>
       <c r="AX149" s="5">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>9.6768990726272858E-4</v>
       </c>
       <c r="AY149" s="5">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>9.2185007795202471E-4</v>
       </c>
       <c r="AZ149" s="5">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>4.3909084916674175E-4</v>
       </c>
       <c r="BA149" s="5">
         <f t="shared" si="154"/>
-        <v>0</v>
+        <v>1.3943031767182438E-4</v>
       </c>
       <c r="BB149" s="5">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>3.3206362970712948E-5</v>
       </c>
       <c r="BC149" s="5">
         <f t="shared" si="156"/>
-        <v>0</v>
+        <v>6.3266730516274715E-6</v>
       </c>
       <c r="BD149" s="5">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v>9.9564710152283235E-5</v>
       </c>
       <c r="BE149" s="5">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1.3855897075269538E-4</v>
       </c>
       <c r="BF149" s="5">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>9.6412616210513996E-5</v>
       </c>
       <c r="BG149" s="5">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>4.4724122463575868E-5</v>
       </c>
       <c r="BH149" s="5">
         <f t="shared" si="161"/>
-        <v>0</v>
+        <v>1.5560052268751739E-5</v>
       </c>
       <c r="BI149" s="5">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>4.3308212797864327E-6</v>
       </c>
       <c r="BJ149" s="8">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>0.47004481547748389</v>
       </c>
       <c r="BK149" s="8">
         <f t="shared" si="164"/>
-        <v>1</v>
+        <v>0.27289131769768604</v>
       </c>
       <c r="BL149" s="8">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>0.24350174098200061</v>
       </c>
       <c r="BM149" s="8">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>0.41500472537563421</v>
       </c>
       <c r="BN149" s="8">
         <f t="shared" si="167"/>
-        <v>1</v>
+        <v>0.58433250625770494</v>
       </c>
     </row>
     <row r="150" spans="1:66" x14ac:dyDescent="0.25">
@@ -55158,7 +55710,7 @@
       </c>
       <c r="G152">
         <f>VLOOKUP(C152,away!$B$2:$E$405,4,FALSE)</f>
-        <v>0</v>
+        <v>1.71</v>
       </c>
       <c r="H152">
         <f>VLOOKUP(A152,away!$A$2:$E$405,3,FALSE)</f>
@@ -55166,7 +55718,7 @@
       </c>
       <c r="I152">
         <f>VLOOKUP(C152,away!$B$2:$E$405,3,FALSE)</f>
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="J152">
         <f>VLOOKUP(B152,home!$B$2:$E$405,4,FALSE)</f>
@@ -55174,227 +55726,227 @@
       </c>
       <c r="K152" s="3">
         <f t="shared" si="168"/>
-        <v>0</v>
+        <v>3.1988263473053942</v>
       </c>
       <c r="L152" s="3">
         <f t="shared" si="169"/>
-        <v>0</v>
+        <v>0.42801197604790275</v>
       </c>
       <c r="M152" s="5">
         <f t="shared" ref="M152:M155" si="170">_xlfn.POISSON.DIST(0,K152,FALSE) * _xlfn.POISSON.DIST(0,L152,FALSE)</f>
-        <v>1</v>
+        <v>2.6600152680213748E-2</v>
       </c>
       <c r="N152" s="5">
         <f t="shared" ref="N152:N155" si="171">_xlfn.POISSON.DIST(1,K152,FALSE) * _xlfn.POISSON.DIST(0,L152,FALSE)</f>
-        <v>0</v>
+        <v>8.5089269235813933E-2</v>
       </c>
       <c r="O152" s="5">
         <f t="shared" ref="O152:O155" si="172">_xlfn.POISSON.DIST(0,K152,FALSE) * _xlfn.POISSON.DIST(1,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.1385183911834204E-2</v>
       </c>
       <c r="P152" s="5">
         <f t="shared" ref="P152:P155" si="173">_xlfn.POISSON.DIST(1,K152,FALSE) * _xlfn.POISSON.DIST(1,L152,FALSE)</f>
-        <v>0</v>
+        <v>3.6419226266092744E-2</v>
       </c>
       <c r="Q152" s="5">
         <f t="shared" ref="Q152:Q155" si="174">_xlfn.POISSON.DIST(2,K152,FALSE) * _xlfn.POISSON.DIST(0,L152,FALSE)</f>
-        <v>0</v>
+        <v>0.13609289815224199</v>
       </c>
       <c r="R152" s="5">
         <f t="shared" ref="R152:R155" si="175">_xlfn.POISSON.DIST(0,K152,FALSE) * _xlfn.POISSON.DIST(2,L152,FALSE)</f>
-        <v>0</v>
+        <v>2.4364975318864738E-3</v>
       </c>
       <c r="S152" s="5">
         <f t="shared" ref="S152:S155" si="176">_xlfn.POISSON.DIST(2,K152,FALSE) * _xlfn.POISSON.DIST(2,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.2465718315288645E-2</v>
       </c>
       <c r="T152" s="5">
         <f t="shared" ref="T152:T155" si="177">_xlfn.POISSON.DIST(2,K152,FALSE) * _xlfn.POISSON.DIST(1,L152,FALSE)</f>
-        <v>0</v>
+        <v>5.8249390264227069E-2</v>
       </c>
       <c r="U152" s="5">
         <f t="shared" ref="U152:U155" si="178">_xlfn.POISSON.DIST(1,K152,FALSE) * _xlfn.POISSON.DIST(2,L152,FALSE)</f>
-        <v>0</v>
+        <v>7.7939325001430181E-3</v>
       </c>
       <c r="V152" s="5">
         <f t="shared" ref="V152:V155" si="179">_xlfn.POISSON.DIST(3,K152,FALSE) * _xlfn.POISSON.DIST(3,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.8963626151229274E-3</v>
       </c>
       <c r="W152" s="5">
         <f t="shared" ref="W152:W155" si="180">_xlfn.POISSON.DIST(3,K152,FALSE) * _xlfn.POISSON.DIST(0,L152,FALSE)</f>
-        <v>0</v>
+        <v>0.14511251609684708</v>
       </c>
       <c r="X152" s="5">
         <f t="shared" ref="X152:X155" si="181">_xlfn.POISSON.DIST(3,K152,FALSE) * _xlfn.POISSON.DIST(1,L152,FALSE)</f>
-        <v>0</v>
+        <v>6.210989476389462E-2</v>
       </c>
       <c r="Y152" s="5">
         <f t="shared" ref="Y152:Y155" si="182">_xlfn.POISSON.DIST(3,K152,FALSE) * _xlfn.POISSON.DIST(2,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.3291889395010909E-2</v>
       </c>
       <c r="Z152" s="5">
         <f t="shared" ref="Z152:Z155" si="183">_xlfn.POISSON.DIST(0,K152,FALSE) * _xlfn.POISSON.DIST(3,L152,FALSE)</f>
-        <v>0</v>
+        <v>3.4761670775285592E-4</v>
       </c>
       <c r="AA152" s="5">
         <f t="shared" ref="AA152:AA155" si="184">_xlfn.POISSON.DIST(1,K152,FALSE) * _xlfn.POISSON.DIST(3,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.1119654835233948E-3</v>
       </c>
       <c r="AB152" s="5">
         <f t="shared" ref="AB152:AB155" si="185">_xlfn.POISSON.DIST(2,K152,FALSE) * _xlfn.POISSON.DIST(3,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.7784922429944089E-3</v>
       </c>
       <c r="AC152" s="5">
         <f t="shared" ref="AC152:AC155" si="186">_xlfn.POISSON.DIST(4,K152,FALSE) * _xlfn.POISSON.DIST(4,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.6227364367276228E-4</v>
       </c>
       <c r="AD152" s="5">
         <f t="shared" ref="AD152:AD155" si="187">_xlfn.POISSON.DIST(4,K152,FALSE) * _xlfn.POISSON.DIST(0,L152,FALSE)</f>
-        <v>0</v>
+        <v>0.11604743495359314</v>
       </c>
       <c r="AE152" s="5">
         <f t="shared" ref="AE152:AE155" si="188">_xlfn.POISSON.DIST(4,K152,FALSE) * _xlfn.POISSON.DIST(1,L152,FALSE)</f>
-        <v>0</v>
+        <v>4.9669691949777862E-2</v>
       </c>
       <c r="AF152" s="5">
         <f t="shared" ref="AF152:AF155" si="189">_xlfn.POISSON.DIST(4,K152,FALSE) * _xlfn.POISSON.DIST(2,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.0629611500557514E-2</v>
       </c>
       <c r="AG152" s="5">
         <f t="shared" ref="AG152:AG155" si="190">_xlfn.POISSON.DIST(4,K152,FALSE) * _xlfn.POISSON.DIST(3,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.5165336743250448E-3</v>
       </c>
       <c r="AH152" s="5">
         <f t="shared" ref="AH152:AH155" si="191">_xlfn.POISSON.DIST(0,K152,FALSE) * _xlfn.POISSON.DIST(4,L152,FALSE)</f>
-        <v>0</v>
+        <v>3.7196028498141544E-5</v>
       </c>
       <c r="AI152" s="5">
         <f t="shared" ref="AI152:AI155" si="192">_xlfn.POISSON.DIST(1,K152,FALSE) * _xlfn.POISSON.DIST(4,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.1898363597497747E-4</v>
       </c>
       <c r="AJ152" s="5">
         <f t="shared" ref="AJ152:AJ155" si="193">_xlfn.POISSON.DIST(2,K152,FALSE) * _xlfn.POISSON.DIST(4,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.9030399482747597E-4</v>
       </c>
       <c r="AK152" s="5">
         <f t="shared" ref="AK152:AK155" si="194">_xlfn.POISSON.DIST(3,K152,FALSE) * _xlfn.POISSON.DIST(4,L152,FALSE)</f>
-        <v>0</v>
+        <v>2.0291647755053317E-4</v>
       </c>
       <c r="AL152" s="5">
         <f t="shared" ref="AL152:AL155" si="195">_xlfn.POISSON.DIST(5,K152,FALSE) * _xlfn.POISSON.DIST(5,L152,FALSE)</f>
-        <v>0</v>
+        <v>8.8869874049071048E-6</v>
       </c>
       <c r="AM152" s="5">
         <f t="shared" ref="AM152:AM155" si="196">_xlfn.POISSON.DIST(5,K152,FALSE) * _xlfn.POISSON.DIST(0,L152,FALSE)</f>
-        <v>0</v>
+        <v>7.424311849335255E-2</v>
       </c>
       <c r="AN152" s="5">
         <f t="shared" ref="AN152:AN155" si="197">_xlfn.POISSON.DIST(5,K152,FALSE) * _xlfn.POISSON.DIST(1,L152,FALSE)</f>
-        <v>0</v>
+        <v>3.1776943854298419E-2</v>
       </c>
       <c r="AO152" s="5">
         <f t="shared" ref="AO152:AO155" si="198">_xlfn.POISSON.DIST(5,K152,FALSE) * _xlfn.POISSON.DIST(2,L152,FALSE)</f>
-        <v>0</v>
+        <v>6.800456265920761E-3</v>
       </c>
       <c r="AP152" s="5">
         <f t="shared" ref="AP152:AP155" si="199">_xlfn.POISSON.DIST(5,K152,FALSE) * _xlfn.POISSON.DIST(3,L152,FALSE)</f>
-        <v>0</v>
+        <v>9.7022557480136245E-4</v>
       </c>
       <c r="AQ152" s="5">
         <f t="shared" ref="AQ152:AQ155" si="200">_xlfn.POISSON.DIST(5,K152,FALSE) * _xlfn.POISSON.DIST(4,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.0381704137073586E-4</v>
       </c>
       <c r="AR152" s="5">
         <f t="shared" ref="AR152:AR155" si="201">_xlfn.POISSON.DIST(0,K152,FALSE) * _xlfn.POISSON.DIST(5,L152,FALSE)</f>
-        <v>0</v>
+        <v>3.1840691317247333E-6</v>
       </c>
       <c r="AS152" s="5">
         <f t="shared" ref="AS152:AS155" si="202">_xlfn.POISSON.DIST(1,K152,FALSE) * _xlfn.POISSON.DIST(5,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.0185284230202888E-5</v>
       </c>
       <c r="AT152" s="5">
         <f t="shared" ref="AT152:AT155" si="203">_xlfn.POISSON.DIST(2,K152,FALSE) * _xlfn.POISSON.DIST(5,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.629047777518357E-5</v>
       </c>
       <c r="AU152" s="5">
         <f t="shared" ref="AU152:AU155" si="204">_xlfn.POISSON.DIST(3,K152,FALSE) * _xlfn.POISSON.DIST(5,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.7370136505816719E-5</v>
       </c>
       <c r="AV152" s="5">
         <f t="shared" ref="AV152:AV155" si="205">_xlfn.POISSON.DIST(4,K152,FALSE) * _xlfn.POISSON.DIST(5,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.3891012577774447E-5</v>
       </c>
       <c r="AW152" s="5">
         <f t="shared" ref="AW152:AW155" si="206">_xlfn.POISSON.DIST(6,K152,FALSE) * _xlfn.POISSON.DIST(6,L152,FALSE)</f>
-        <v>0</v>
+        <v>3.3798595174144018E-7</v>
       </c>
       <c r="AX152" s="5">
         <f t="shared" ref="AX152:AX155" si="207">_xlfn.POISSON.DIST(6,K152,FALSE) * _xlfn.POISSON.DIST(0,L152,FALSE)</f>
-        <v>0</v>
+        <v>3.958180725710872E-2</v>
       </c>
       <c r="AY152" s="5">
         <f t="shared" ref="AY152:AY155" si="208">_xlfn.POISSON.DIST(6,K152,FALSE) * _xlfn.POISSON.DIST(1,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.694148753966232E-2</v>
       </c>
       <c r="AZ152" s="5">
         <f t="shared" ref="AZ152:AZ155" si="209">_xlfn.POISSON.DIST(6,K152,FALSE) * _xlfn.POISSON.DIST(2,L152,FALSE)</f>
-        <v>0</v>
+        <v>3.6255797795208952E-3</v>
       </c>
       <c r="BA152" s="5">
         <f t="shared" ref="BA152:BA155" si="210">_xlfn.POISSON.DIST(6,K152,FALSE) * _xlfn.POISSON.DIST(3,L152,FALSE)</f>
-        <v>0</v>
+        <v>5.1726385525068604E-4</v>
       </c>
       <c r="BB152" s="5">
         <f t="shared" ref="BB152:BB155" si="211">_xlfn.POISSON.DIST(6,K152,FALSE) * _xlfn.POISSON.DIST(4,L152,FALSE)</f>
-        <v>0</v>
+        <v>5.5348781206000617E-5</v>
       </c>
       <c r="BC152" s="5">
         <f t="shared" ref="BC152:BC155" si="212">_xlfn.POISSON.DIST(6,K152,FALSE) * _xlfn.POISSON.DIST(5,L152,FALSE)</f>
-        <v>0</v>
+        <v>4.73798824316467E-6</v>
       </c>
       <c r="BD152" s="5">
         <f t="shared" ref="BD152:BD155" si="213">_xlfn.POISSON.DIST(0,K152,FALSE) * _xlfn.POISSON.DIST(6,L152,FALSE)</f>
-        <v>0</v>
+        <v>2.2713662015710548E-7</v>
       </c>
       <c r="BE152" s="5">
         <f t="shared" ref="BE152:BE155" si="214">_xlfn.POISSON.DIST(1,K152,FALSE) * _xlfn.POISSON.DIST(6,L152,FALSE)</f>
-        <v>0</v>
+        <v>7.2657060499644654E-7</v>
       </c>
       <c r="BF152" s="5">
         <f t="shared" ref="BF152:BF155" si="215">_xlfn.POISSON.DIST(2,K152,FALSE) * _xlfn.POISSON.DIST(6,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.1620865972201268E-6</v>
       </c>
       <c r="BG152" s="5">
         <f t="shared" ref="BG152:BG155" si="216">_xlfn.POISSON.DIST(3,K152,FALSE) * _xlfn.POISSON.DIST(6,L152,FALSE)</f>
-        <v>0</v>
+        <v>1.239104408346071E-6</v>
       </c>
       <c r="BH152" s="5">
         <f t="shared" ref="BH152:BH155" si="217">_xlfn.POISSON.DIST(4,K152,FALSE) * _xlfn.POISSON.DIST(6,L152,FALSE)</f>
-        <v>0</v>
+        <v>9.9091995711991846E-7</v>
       </c>
       <c r="BI152" s="5">
         <f t="shared" ref="BI152:BI155" si="218">_xlfn.POISSON.DIST(5,K152,FALSE) * _xlfn.POISSON.DIST(6,L152,FALSE)</f>
-        <v>0</v>
+        <v>6.3395617338118551E-7</v>
       </c>
       <c r="BJ152" s="8">
         <f t="shared" ref="BJ152:BJ155" si="219">SUM(N152,Q152,T152,W152,X152,Y152,AD152,AE152,AF152,AG152,AM152,AN152,AO152,AP152,AQ152,AX152,AY152,AZ152,BA152,BB152,BC152)</f>
-        <v>0</v>
+        <v>0.8524299164170247</v>
       </c>
       <c r="BK152" s="8">
         <f t="shared" ref="BK152:BK155" si="220">SUM(M152,P152,S152,V152,AC152,AL152,AY152)</f>
-        <v>1</v>
+        <v>9.4494108047458045E-2</v>
       </c>
       <c r="BL152" s="8">
         <f t="shared" ref="BL152:BL155" si="221">SUM(O152,R152,U152,AA152,AB152,AH152,AI152,AJ152,AK152,AR152,AS152,AT152,AU152,AV152,BD152,BE152,BF152,BG152,BH152,BI152)</f>
-        <v>0</v>
+        <v>2.5121372561814549E-2</v>
       </c>
       <c r="BM152" s="8">
         <f t="shared" ref="BM152:BM155" si="222">SUM(S152:BI152)</f>
-        <v>0</v>
+        <v>0.65742863640225646</v>
       </c>
       <c r="BN152" s="8">
         <f t="shared" ref="BN152:BN155" si="223">SUM(M152:R152)</f>
-        <v>1</v>
+        <v>0.2980232277780831</v>
       </c>
     </row>
     <row r="153" spans="1:66" x14ac:dyDescent="0.25">

--- a/poisson calc.xlsx
+++ b/poisson calc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard.000\gitboyzorro5\FDAS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonard\gitboyzorro5\FDAS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2356,8 +2356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E405"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="A22" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K58" sqref="K58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16166,10 +16166,10 @@
   <dimension ref="A1:CJ230"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="BF188" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="BF200" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="M1" sqref="M1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BL238" sqref="BL238"/>
+      <selection pane="bottomRight" activeCell="A211" sqref="A211:XFD211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
